--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.628963528181885</v>
+        <v>3.628963528181771</v>
       </c>
       <c r="C2">
-        <v>0.9904666497782273</v>
+        <v>0.990466649778142</v>
       </c>
       <c r="D2">
-        <v>0.01702545684929113</v>
+        <v>0.01702545684918455</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.844682248033976</v>
+        <v>1.84468224803399</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127204292060128</v>
+        <v>3.127204292060014</v>
       </c>
       <c r="C3">
-        <v>0.8551620761603829</v>
+        <v>0.8551620761602123</v>
       </c>
       <c r="D3">
-        <v>0.01839452099349081</v>
+        <v>0.01839452099368621</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.632404632504233</v>
+        <v>1.632404632504247</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.82381573354445</v>
       </c>
       <c r="C4">
-        <v>0.7732125385333859</v>
+        <v>0.7732125385333006</v>
       </c>
       <c r="D4">
-        <v>0.01937208010890323</v>
+        <v>0.01937208010906488</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.508304058040039</v>
+        <v>1.508304058040025</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.701171248486901</v>
+        <v>2.701171248487128</v>
       </c>
       <c r="C5">
-        <v>0.7400490737893222</v>
+        <v>0.7400490737895495</v>
       </c>
       <c r="D5">
-        <v>0.01980153634891124</v>
+        <v>0.0198015363489219</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.459120933969047</v>
+        <v>1.459120933969075</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.680860709001706</v>
+        <v>2.680860709001763</v>
       </c>
       <c r="C6">
-        <v>0.7345548761663281</v>
+        <v>0.7345548761661576</v>
       </c>
       <c r="D6">
-        <v>0.01987463419365731</v>
+        <v>0.0198746341937408</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.822157942691774</v>
+        <v>2.822157942691717</v>
       </c>
       <c r="C7">
         <v>0.7727644114331724</v>
       </c>
       <c r="D7">
-        <v>0.0193777501691148</v>
+        <v>0.01937775016932441</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>3.454861231937457</v>
       </c>
       <c r="C8">
-        <v>0.9435464307996426</v>
+        <v>0.9435464308001542</v>
       </c>
       <c r="D8">
-        <v>0.0174669560256433</v>
+        <v>0.01746695602566106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.770080199266062</v>
+        <v>1.770080199266047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>4.742652214959946</v>
       </c>
       <c r="C9">
-        <v>1.290079564074972</v>
+        <v>1.290079564074915</v>
       </c>
       <c r="D9">
-        <v>0.01497919675018267</v>
+        <v>0.01497919675038517</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343386394810238</v>
+        <v>2.343386394810281</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.733315566819556</v>
+        <v>5.733315566819385</v>
       </c>
       <c r="C10">
-        <v>1.556111047270406</v>
+        <v>1.556111047270747</v>
       </c>
       <c r="D10">
-        <v>0.01420119144104603</v>
+        <v>0.01420119144071919</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.815011493486367</v>
+        <v>2.815011493486338</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.197922361627377</v>
+        <v>6.197922361627548</v>
       </c>
       <c r="C11">
-        <v>1.680795558407624</v>
+        <v>1.680795558407908</v>
       </c>
       <c r="D11">
-        <v>0.01415314392379941</v>
+        <v>0.0141531439239202</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.044448011497224</v>
+        <v>3.044448011497167</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.376289148966464</v>
+        <v>6.376289148966521</v>
       </c>
       <c r="C12">
-        <v>1.728655988731418</v>
+        <v>1.728655988731532</v>
       </c>
       <c r="D12">
-        <v>0.01418697108278621</v>
+        <v>0.01418697108294609</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.13386582085306</v>
+        <v>3.133865820853032</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.337759047379336</v>
+        <v>6.337759047379222</v>
       </c>
       <c r="C13">
-        <v>1.718317595070914</v>
+        <v>1.718317595071198</v>
       </c>
       <c r="D13">
-        <v>0.0141772276558676</v>
+        <v>0.01417722765565799</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.114488352021198</v>
+        <v>3.114488352021169</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.212545310242774</v>
+        <v>6.21254531024266</v>
       </c>
       <c r="C14">
-        <v>1.6847193861405</v>
+        <v>1.684719386140728</v>
       </c>
       <c r="D14">
         <v>0.01415483282949737</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.136178591080693</v>
+        <v>6.136178591080579</v>
       </c>
       <c r="C15">
-        <v>1.664227378149235</v>
+        <v>1.664227378149121</v>
       </c>
       <c r="D15">
-        <v>0.01414815449544093</v>
+        <v>0.01414815449541962</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.703267811248622</v>
+        <v>5.703267811248793</v>
       </c>
       <c r="C16">
-        <v>1.548046015977377</v>
+        <v>1.548046015976922</v>
       </c>
       <c r="D16">
-        <v>0.01421114009472291</v>
+        <v>0.01421114009464119</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.800349133568972</v>
+        <v>2.800349133569</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.441544362266711</v>
+        <v>5.441544362266541</v>
       </c>
       <c r="C17">
-        <v>1.477789179806223</v>
+        <v>1.477789179806109</v>
       </c>
       <c r="D17">
-        <v>0.01433338918246463</v>
+        <v>0.01433338918247529</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.29229175703307</v>
+        <v>5.29229175703324</v>
       </c>
       <c r="C18">
-        <v>1.437716180488394</v>
+        <v>1.437716180488565</v>
       </c>
       <c r="D18">
-        <v>0.01443193428728407</v>
+        <v>0.01443193428703538</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.602010139724655</v>
+        <v>2.602010139724683</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.241966063774669</v>
       </c>
       <c r="C19">
-        <v>1.424202732319316</v>
+        <v>1.424202732319429</v>
       </c>
       <c r="D19">
-        <v>0.0144699271526072</v>
+        <v>0.01446992715263562</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.578009455086146</v>
+        <v>2.578009455086118</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>1.485232483145694</v>
       </c>
       <c r="D20">
-        <v>0.01431740024090544</v>
+        <v>0.0143174002407136</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.686912699262308</v>
+        <v>2.68691269926228</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.249253922342461</v>
+        <v>6.249253922342405</v>
       </c>
       <c r="C21">
-        <v>1.694569443097919</v>
+        <v>1.694569443097862</v>
       </c>
       <c r="D21">
-        <v>0.01415992723120851</v>
+        <v>0.0141599272311872</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.070106323877241</v>
+        <v>3.070106323877212</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.773436326824481</v>
+        <v>6.773436326824708</v>
       </c>
       <c r="C22">
-        <v>1.835214024334505</v>
+        <v>1.835214024334277</v>
       </c>
       <c r="D22">
-        <v>0.01436513480346591</v>
+        <v>0.01436513480354762</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.335556349511734</v>
+        <v>3.335556349511762</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.492191274722984</v>
+        <v>6.492191274722927</v>
       </c>
       <c r="C23">
-        <v>1.759754228910253</v>
+        <v>1.759754228910083</v>
       </c>
       <c r="D23">
-        <v>0.014224345605097</v>
+        <v>0.01422434560500108</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.192358881842154</v>
+        <v>3.192358881842125</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.456731236335884</v>
+        <v>5.456731236335827</v>
       </c>
       <c r="C24">
-        <v>1.481866381987231</v>
+        <v>1.481866381987516</v>
       </c>
       <c r="D24">
-        <v>0.01432454139699857</v>
+        <v>0.01432454139698436</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.387731073827922</v>
+        <v>4.387731073828036</v>
       </c>
       <c r="C25">
-        <v>1.194677442465661</v>
+        <v>1.194677442465434</v>
       </c>
       <c r="D25">
-        <v>0.01549093555528813</v>
+        <v>0.01549093555527392</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.180620769586241</v>
+        <v>2.180620769586255</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.628963528181771</v>
+        <v>3.628963528181885</v>
       </c>
       <c r="C2">
-        <v>0.990466649778142</v>
+        <v>0.9904666497782273</v>
       </c>
       <c r="D2">
-        <v>0.01702545684918455</v>
+        <v>0.01702545684929113</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.84468224803399</v>
+        <v>1.844682248033976</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127204292060014</v>
+        <v>3.127204292060128</v>
       </c>
       <c r="C3">
-        <v>0.8551620761602123</v>
+        <v>0.8551620761603829</v>
       </c>
       <c r="D3">
-        <v>0.01839452099368621</v>
+        <v>0.01839452099349081</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.632404632504247</v>
+        <v>1.632404632504233</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.82381573354445</v>
       </c>
       <c r="C4">
-        <v>0.7732125385333006</v>
+        <v>0.7732125385333859</v>
       </c>
       <c r="D4">
-        <v>0.01937208010906488</v>
+        <v>0.01937208010890323</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.508304058040025</v>
+        <v>1.508304058040039</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.701171248487128</v>
+        <v>2.701171248486901</v>
       </c>
       <c r="C5">
-        <v>0.7400490737895495</v>
+        <v>0.7400490737893222</v>
       </c>
       <c r="D5">
-        <v>0.0198015363489219</v>
+        <v>0.01980153634891124</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.459120933969075</v>
+        <v>1.459120933969047</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.680860709001763</v>
+        <v>2.680860709001706</v>
       </c>
       <c r="C6">
-        <v>0.7345548761661576</v>
+        <v>0.7345548761663281</v>
       </c>
       <c r="D6">
-        <v>0.0198746341937408</v>
+        <v>0.01987463419365731</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.822157942691717</v>
+        <v>2.822157942691774</v>
       </c>
       <c r="C7">
         <v>0.7727644114331724</v>
       </c>
       <c r="D7">
-        <v>0.01937775016932441</v>
+        <v>0.0193777501691148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>3.454861231937457</v>
       </c>
       <c r="C8">
-        <v>0.9435464308001542</v>
+        <v>0.9435464307996426</v>
       </c>
       <c r="D8">
-        <v>0.01746695602566106</v>
+        <v>0.0174669560256433</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.770080199266047</v>
+        <v>1.770080199266062</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>4.742652214959946</v>
       </c>
       <c r="C9">
-        <v>1.290079564074915</v>
+        <v>1.290079564074972</v>
       </c>
       <c r="D9">
-        <v>0.01497919675038517</v>
+        <v>0.01497919675018267</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343386394810281</v>
+        <v>2.343386394810238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.733315566819385</v>
+        <v>5.733315566819556</v>
       </c>
       <c r="C10">
-        <v>1.556111047270747</v>
+        <v>1.556111047270406</v>
       </c>
       <c r="D10">
-        <v>0.01420119144071919</v>
+        <v>0.01420119144104603</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.815011493486338</v>
+        <v>2.815011493486367</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.197922361627548</v>
+        <v>6.197922361627377</v>
       </c>
       <c r="C11">
-        <v>1.680795558407908</v>
+        <v>1.680795558407624</v>
       </c>
       <c r="D11">
-        <v>0.0141531439239202</v>
+        <v>0.01415314392379941</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.044448011497167</v>
+        <v>3.044448011497224</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.376289148966521</v>
+        <v>6.376289148966464</v>
       </c>
       <c r="C12">
-        <v>1.728655988731532</v>
+        <v>1.728655988731418</v>
       </c>
       <c r="D12">
-        <v>0.01418697108294609</v>
+        <v>0.01418697108278621</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.133865820853032</v>
+        <v>3.13386582085306</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.337759047379222</v>
+        <v>6.337759047379336</v>
       </c>
       <c r="C13">
-        <v>1.718317595071198</v>
+        <v>1.718317595070914</v>
       </c>
       <c r="D13">
-        <v>0.01417722765565799</v>
+        <v>0.0141772276558676</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.114488352021169</v>
+        <v>3.114488352021198</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.21254531024266</v>
+        <v>6.212545310242774</v>
       </c>
       <c r="C14">
-        <v>1.684719386140728</v>
+        <v>1.6847193861405</v>
       </c>
       <c r="D14">
         <v>0.01415483282949737</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.136178591080579</v>
+        <v>6.136178591080693</v>
       </c>
       <c r="C15">
-        <v>1.664227378149121</v>
+        <v>1.664227378149235</v>
       </c>
       <c r="D15">
-        <v>0.01414815449541962</v>
+        <v>0.01414815449544093</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.703267811248793</v>
+        <v>5.703267811248622</v>
       </c>
       <c r="C16">
-        <v>1.548046015976922</v>
+        <v>1.548046015977377</v>
       </c>
       <c r="D16">
-        <v>0.01421114009464119</v>
+        <v>0.01421114009472291</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.800349133569</v>
+        <v>2.800349133568972</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.441544362266541</v>
+        <v>5.441544362266711</v>
       </c>
       <c r="C17">
-        <v>1.477789179806109</v>
+        <v>1.477789179806223</v>
       </c>
       <c r="D17">
-        <v>0.01433338918247529</v>
+        <v>0.01433338918246463</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.29229175703324</v>
+        <v>5.29229175703307</v>
       </c>
       <c r="C18">
-        <v>1.437716180488565</v>
+        <v>1.437716180488394</v>
       </c>
       <c r="D18">
-        <v>0.01443193428703538</v>
+        <v>0.01443193428728407</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.602010139724683</v>
+        <v>2.602010139724655</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>5.241966063774669</v>
       </c>
       <c r="C19">
-        <v>1.424202732319429</v>
+        <v>1.424202732319316</v>
       </c>
       <c r="D19">
-        <v>0.01446992715263562</v>
+        <v>0.0144699271526072</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.578009455086118</v>
+        <v>2.578009455086146</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>1.485232483145694</v>
       </c>
       <c r="D20">
-        <v>0.0143174002407136</v>
+        <v>0.01431740024090544</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.68691269926228</v>
+        <v>2.686912699262308</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.249253922342405</v>
+        <v>6.249253922342461</v>
       </c>
       <c r="C21">
-        <v>1.694569443097862</v>
+        <v>1.694569443097919</v>
       </c>
       <c r="D21">
-        <v>0.0141599272311872</v>
+        <v>0.01415992723120851</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.070106323877212</v>
+        <v>3.070106323877241</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.773436326824708</v>
+        <v>6.773436326824481</v>
       </c>
       <c r="C22">
-        <v>1.835214024334277</v>
+        <v>1.835214024334505</v>
       </c>
       <c r="D22">
-        <v>0.01436513480354762</v>
+        <v>0.01436513480346591</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.335556349511762</v>
+        <v>3.335556349511734</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.492191274722927</v>
+        <v>6.492191274722984</v>
       </c>
       <c r="C23">
-        <v>1.759754228910083</v>
+        <v>1.759754228910253</v>
       </c>
       <c r="D23">
-        <v>0.01422434560500108</v>
+        <v>0.014224345605097</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.192358881842125</v>
+        <v>3.192358881842154</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.456731236335827</v>
+        <v>5.456731236335884</v>
       </c>
       <c r="C24">
-        <v>1.481866381987516</v>
+        <v>1.481866381987231</v>
       </c>
       <c r="D24">
-        <v>0.01432454139698436</v>
+        <v>0.01432454139699857</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.387731073828036</v>
+        <v>4.387731073827922</v>
       </c>
       <c r="C25">
-        <v>1.194677442465434</v>
+        <v>1.194677442465661</v>
       </c>
       <c r="D25">
-        <v>0.01549093555527392</v>
+        <v>0.01549093555528813</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.180620769586255</v>
+        <v>2.180620769586241</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.628963528181885</v>
+        <v>3.59866951215605</v>
       </c>
       <c r="C2">
-        <v>0.9904666497782273</v>
+        <v>0.9759351589121934</v>
       </c>
       <c r="D2">
-        <v>0.01702545684929113</v>
+        <v>0.01956295938251351</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.844682248033976</v>
+        <v>1.855334649966082</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007741164264526624</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -444,28 +447,31 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.127204292060128</v>
+        <v>3.101786535662256</v>
       </c>
       <c r="C3">
-        <v>0.8551620761603829</v>
+        <v>0.8421454571702327</v>
       </c>
       <c r="D3">
-        <v>0.01839452099349081</v>
+        <v>0.02116663526667928</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.632404632504233</v>
+        <v>1.647623478093735</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007836172170738105</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -482,28 +488,31 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.82381573354445</v>
+        <v>2.801378855550297</v>
       </c>
       <c r="C4">
-        <v>0.7732125385333859</v>
+        <v>0.7611232055461699</v>
       </c>
       <c r="D4">
-        <v>0.01937208010890323</v>
+        <v>0.02228878092931197</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.508304058040039</v>
+        <v>1.526306085392505</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007895797928095148</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -520,28 +529,31 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.701171248486901</v>
+        <v>2.679948868554504</v>
       </c>
       <c r="C5">
-        <v>0.7400490737893222</v>
+        <v>0.7283378427598564</v>
       </c>
       <c r="D5">
-        <v>0.01980153634891124</v>
+        <v>0.02277740315277832</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.459120933969047</v>
+        <v>1.478255163737416</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007920444154529154</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -558,28 +570,31 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.680860709001706</v>
+        <v>2.659840063712409</v>
       </c>
       <c r="C6">
-        <v>0.7345548761663281</v>
+        <v>0.7229064674999677</v>
       </c>
       <c r="D6">
-        <v>0.01987463419365731</v>
+        <v>0.0228603433116934</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.451033057261142</v>
+        <v>1.470355256158129</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000792455832810627</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -596,28 +611,31 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.822157942691774</v>
+        <v>2.799737441019033</v>
       </c>
       <c r="C7">
-        <v>0.7727644114331724</v>
+        <v>0.7606801755933645</v>
       </c>
       <c r="D7">
-        <v>0.0193777501691148</v>
+        <v>0.02229524778996073</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.507635359236346</v>
+        <v>1.525652659865401</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007896128875664128</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -634,28 +652,31 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.454861231937457</v>
+        <v>3.42625326984313</v>
       </c>
       <c r="C8">
-        <v>0.9435464307996426</v>
+        <v>0.9295384684711507</v>
       </c>
       <c r="D8">
-        <v>0.0174669560256433</v>
+        <v>0.02008531356352883</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.770080199266062</v>
+        <v>1.782313467781506</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007773670156944214</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -672,28 +693,31 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.742652214959946</v>
+        <v>4.701641294927697</v>
       </c>
       <c r="C9">
-        <v>1.290079564074972</v>
+        <v>1.2722260105337</v>
       </c>
       <c r="D9">
-        <v>0.01497919675018267</v>
+        <v>0.01700926801173352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343386394810238</v>
+        <v>2.343942140086753</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007542562294631054</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -710,28 +734,31 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.733315566819556</v>
+        <v>5.682746500475218</v>
       </c>
       <c r="C10">
-        <v>1.556111047270406</v>
+        <v>1.535301197584261</v>
       </c>
       <c r="D10">
-        <v>0.01420119144104603</v>
+        <v>0.01578807186066555</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.815011493486367</v>
+        <v>2.806493293589199</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007376345729776418</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -748,28 +775,31 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.197922361627377</v>
+        <v>6.142826035608834</v>
       </c>
       <c r="C11">
-        <v>1.680795558407624</v>
+        <v>1.658587131596846</v>
       </c>
       <c r="D11">
-        <v>0.01415314392379941</v>
+        <v>0.0155331620257364</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.044448011497224</v>
+        <v>3.031610371166863</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007300992127617873</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -786,28 +816,31 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.376289148966464</v>
+        <v>6.319443821884875</v>
       </c>
       <c r="C12">
-        <v>1.728655988731418</v>
+        <v>1.705907501191689</v>
       </c>
       <c r="D12">
-        <v>0.01418697108278621</v>
+        <v>0.0154875961224441</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.13386582085306</v>
+        <v>3.119355932799806</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007272443761299272</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -824,28 +857,31 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.337759047379336</v>
+        <v>6.281292102493751</v>
       </c>
       <c r="C13">
-        <v>1.718317595070914</v>
+        <v>1.695685934319499</v>
       </c>
       <c r="D13">
-        <v>0.0141772276558676</v>
+        <v>0.01549500406926896</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.114488352021198</v>
+        <v>3.10034040478601</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000727859366870984</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -862,28 +898,31 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.212545310242774</v>
+        <v>6.157305844957307</v>
       </c>
       <c r="C14">
-        <v>1.6847193861405</v>
+        <v>1.662466755520597</v>
       </c>
       <c r="D14">
-        <v>0.01415483282949737</v>
+        <v>0.01552834241732626</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.051751166000145</v>
+        <v>3.038776740757754</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007298644031031165</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -900,28 +939,31 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.136178591080693</v>
+        <v>6.081686185184537</v>
       </c>
       <c r="C15">
-        <v>1.664227378149235</v>
+        <v>1.642205461918991</v>
       </c>
       <c r="D15">
-        <v>0.01414815449544093</v>
+        <v>0.01555565422055594</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.01366580108936</v>
+        <v>3.001405127079408</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007310922033072142</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -938,28 +980,31 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.703267811248622</v>
+        <v>5.652990293917696</v>
       </c>
       <c r="C16">
-        <v>1.548046015977377</v>
+        <v>1.527326266412615</v>
       </c>
       <c r="D16">
-        <v>0.01421114009472291</v>
+        <v>0.01581140929182112</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.800349133568972</v>
+        <v>2.792108637555145</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000738127131624738</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -976,28 +1021,31 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.441544362266711</v>
+        <v>5.393800947983209</v>
       </c>
       <c r="C17">
-        <v>1.477789179806223</v>
+        <v>1.457852753002328</v>
       </c>
       <c r="D17">
-        <v>0.01433338918246463</v>
+        <v>0.0160503748145473</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.673560782309607</v>
+        <v>2.66773164270154</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007424461021221931</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1014,28 +1062,31 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.29229175703307</v>
+        <v>5.24598965684595</v>
       </c>
       <c r="C18">
-        <v>1.437716180488394</v>
+        <v>1.418225436377497</v>
       </c>
       <c r="D18">
-        <v>0.01443193428728407</v>
+        <v>0.01621557927875372</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.602010139724655</v>
+        <v>2.597550551165597</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007449330472298793</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1052,28 +1103,31 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.241966063774669</v>
+        <v>5.196149417630124</v>
       </c>
       <c r="C19">
-        <v>1.424202732319316</v>
+        <v>1.404862126520072</v>
       </c>
       <c r="D19">
-        <v>0.0144699271526072</v>
+        <v>0.01627606885903532</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.578009455086146</v>
+        <v>2.574010827916055</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007457757047965069</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1090,28 +1144,31 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.469269548622492</v>
+        <v>5.42125811282574</v>
       </c>
       <c r="C20">
-        <v>1.485232483145694</v>
+        <v>1.465213191450857</v>
       </c>
       <c r="D20">
-        <v>0.01431740024090544</v>
+        <v>0.01602201213855281</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.686912699262308</v>
+        <v>2.680828726160456</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007419860860301553</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1128,28 +1185,31 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.249253922342461</v>
+        <v>6.193654937209089</v>
       </c>
       <c r="C21">
-        <v>1.694569443097919</v>
+        <v>1.672205790631494</v>
       </c>
       <c r="D21">
-        <v>0.01415992723120851</v>
+        <v>0.0155170981262458</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.070106323877241</v>
+        <v>3.056788281387668</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007292755569687292</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1166,28 +1226,31 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.773436326824481</v>
+        <v>6.712670881841746</v>
       </c>
       <c r="C22">
-        <v>1.835214024334505</v>
+        <v>1.811255523076227</v>
       </c>
       <c r="D22">
-        <v>0.01436513480346591</v>
+        <v>0.0154888678018068</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.335556349511734</v>
+        <v>3.317291472339804</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007209575615344704</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1204,28 +1267,31 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.492191274722984</v>
+        <v>6.434205757629741</v>
       </c>
       <c r="C23">
-        <v>1.759754228910253</v>
+        <v>1.73665373937115</v>
       </c>
       <c r="D23">
-        <v>0.014224345605097</v>
+        <v>0.01547337018673289</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.192358881842154</v>
+        <v>3.176757806503417</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007253999430757044</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1242,28 +1308,31 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.456731236335884</v>
+        <v>5.408841020942475</v>
       </c>
       <c r="C24">
-        <v>1.481866381987231</v>
+        <v>1.4618845678296</v>
       </c>
       <c r="D24">
-        <v>0.01432454139699857</v>
+        <v>0.01603474881653355</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.68087214745492</v>
+        <v>2.674903436160179</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007421940467963184</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1280,28 +1349,31 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.387731073827922</v>
+        <v>4.350130130839602</v>
       </c>
       <c r="C25">
-        <v>1.194677442465661</v>
+        <v>1.177879969762955</v>
       </c>
       <c r="D25">
-        <v>0.01549093555528813</v>
+        <v>0.01768125283348709</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.180620769586241</v>
+        <v>2.184398175477682</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007604299606814857</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.59866951215605</v>
+        <v>3.598669512155993</v>
       </c>
       <c r="C2">
-        <v>0.9759351589121934</v>
+        <v>0.9759351589124208</v>
       </c>
       <c r="D2">
-        <v>0.01956295938251351</v>
+        <v>0.01956295938245489</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.855334649966082</v>
+        <v>1.855334649966068</v>
       </c>
       <c r="G2">
-        <v>0.0007741164264526624</v>
+        <v>0.0007741164263591328</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.101786535662256</v>
+        <v>3.1017865356622</v>
       </c>
       <c r="C3">
-        <v>0.8421454571702327</v>
+        <v>0.8421454571700906</v>
       </c>
       <c r="D3">
-        <v>0.02116663526667928</v>
+        <v>0.02116663526680007</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.647623478093735</v>
+        <v>1.64762347809372</v>
       </c>
       <c r="G3">
-        <v>0.0007836172170738105</v>
+        <v>0.0007836172170305423</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.801378855550297</v>
+        <v>2.801378855550183</v>
       </c>
       <c r="C4">
-        <v>0.7611232055461699</v>
+        <v>0.7611232055460562</v>
       </c>
       <c r="D4">
-        <v>0.02228878092931197</v>
+        <v>0.02228878092945585</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.526306085392505</v>
+        <v>1.526306085392477</v>
       </c>
       <c r="G4">
-        <v>0.0007895797928095148</v>
+        <v>0.0007895797927691154</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,19 +550,25 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.679948868554504</v>
+        <v>2.679948868554732</v>
       </c>
       <c r="C5">
-        <v>0.7283378427598564</v>
+        <v>0.7283378427596574</v>
       </c>
       <c r="D5">
-        <v>0.02277740315277832</v>
+        <v>0.02277740315299503</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -553,7 +577,7 @@
         <v>1.478255163737416</v>
       </c>
       <c r="G5">
-        <v>0.0007920444154529154</v>
+        <v>0.0007920444154712159</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.659840063712409</v>
+        <v>2.659840063712522</v>
       </c>
       <c r="C6">
-        <v>0.7229064674999677</v>
+        <v>0.722906467499655</v>
       </c>
       <c r="D6">
-        <v>0.0228603433116934</v>
+        <v>0.02286034331159925</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.470355256158129</v>
+        <v>1.470355256158115</v>
       </c>
       <c r="G6">
-        <v>0.000792455832810627</v>
+        <v>0.0007924558327132172</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,8 +644,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,10 +659,10 @@
         <v>2.799737441019033</v>
       </c>
       <c r="C7">
-        <v>0.7606801755933645</v>
+        <v>0.7606801755929382</v>
       </c>
       <c r="D7">
-        <v>0.02229524778996073</v>
+        <v>0.02229524778996606</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -635,7 +671,7 @@
         <v>1.525652659865401</v>
       </c>
       <c r="G7">
-        <v>0.0007896128875664128</v>
+        <v>0.0007896128875682001</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,19 +691,25 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.42625326984313</v>
+        <v>3.426253269843073</v>
       </c>
       <c r="C8">
-        <v>0.9295384684711507</v>
+        <v>0.929538468471037</v>
       </c>
       <c r="D8">
-        <v>0.02008531356352883</v>
+        <v>0.02008531356333343</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -676,7 +718,7 @@
         <v>1.782313467781506</v>
       </c>
       <c r="G8">
-        <v>0.0007773670156944214</v>
+        <v>0.0007773670155964561</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.701641294927697</v>
+        <v>4.70164129492764</v>
       </c>
       <c r="C9">
-        <v>1.2722260105337</v>
+        <v>1.272226010533757</v>
       </c>
       <c r="D9">
-        <v>0.01700926801173352</v>
+        <v>0.01700926801195024</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343942140086753</v>
+        <v>2.343942140086767</v>
       </c>
       <c r="G9">
-        <v>0.0007542562294631054</v>
+        <v>0.0007542562294073907</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,8 +785,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>5.682746500475218</v>
       </c>
       <c r="C10">
-        <v>1.535301197584261</v>
+        <v>1.535301197584374</v>
       </c>
       <c r="D10">
-        <v>0.01578807186066555</v>
+        <v>0.0157880718607899</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.806493293589199</v>
+        <v>2.806493293589227</v>
       </c>
       <c r="G10">
-        <v>0.0007376345729776418</v>
+        <v>0.0007376345729778639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,19 +832,25 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.142826035608834</v>
+        <v>6.142826035609119</v>
       </c>
       <c r="C11">
-        <v>1.658587131596846</v>
+        <v>1.658587131597244</v>
       </c>
       <c r="D11">
-        <v>0.0155331620257364</v>
+        <v>0.01553316202596022</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -799,7 +859,7 @@
         <v>3.031610371166863</v>
       </c>
       <c r="G11">
-        <v>0.0007300992127617873</v>
+        <v>0.000730099212704229</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.319443821884875</v>
+        <v>6.319443821885045</v>
       </c>
       <c r="C12">
-        <v>1.705907501191689</v>
+        <v>1.705907501191291</v>
       </c>
       <c r="D12">
-        <v>0.0154875961224441</v>
+        <v>0.01548759612242989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.119355932799806</v>
+        <v>3.119355932799834</v>
       </c>
       <c r="G12">
-        <v>0.0007272443761299272</v>
+        <v>0.0007272443761235068</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,19 +926,25 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.281292102493751</v>
+        <v>6.281292102493637</v>
       </c>
       <c r="C13">
         <v>1.695685934319499</v>
       </c>
       <c r="D13">
-        <v>0.01549500406926896</v>
+        <v>0.01549500406902737</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -881,7 +953,7 @@
         <v>3.10034040478601</v>
       </c>
       <c r="G13">
-        <v>0.000727859366870984</v>
+        <v>0.0007278593669270321</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,19 +973,25 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.157305844957307</v>
+        <v>6.157305844957136</v>
       </c>
       <c r="C14">
-        <v>1.662466755520597</v>
+        <v>1.662466755520654</v>
       </c>
       <c r="D14">
-        <v>0.01552834241732626</v>
+        <v>0.01552834241706336</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -922,7 +1000,7 @@
         <v>3.038776740757754</v>
       </c>
       <c r="G14">
-        <v>0.0007298644031031165</v>
+        <v>0.0007298644030427821</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,8 +1020,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>6.081686185184537</v>
       </c>
       <c r="C15">
-        <v>1.642205461918991</v>
+        <v>1.642205461918934</v>
       </c>
       <c r="D15">
-        <v>0.01555565422055594</v>
+        <v>0.01555565422053817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.001405127079408</v>
+        <v>3.001405127079437</v>
       </c>
       <c r="G15">
-        <v>0.0007310922033072142</v>
+        <v>0.0007310922033585514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.652990293917696</v>
+        <v>5.652990293917867</v>
       </c>
       <c r="C16">
-        <v>1.527326266412615</v>
+        <v>1.527326266412672</v>
       </c>
       <c r="D16">
-        <v>0.01581140929182112</v>
+        <v>0.01581140929195257</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.792108637555145</v>
+        <v>2.792108637555089</v>
       </c>
       <c r="G16">
-        <v>0.000738127131624738</v>
+        <v>0.0007381271317405462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393800947983209</v>
+        <v>5.393800947983152</v>
       </c>
       <c r="C17">
-        <v>1.457852753002328</v>
+        <v>1.457852753002271</v>
       </c>
       <c r="D17">
-        <v>0.0160503748145473</v>
+        <v>0.01605037481450111</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.66773164270154</v>
+        <v>2.667731642701426</v>
       </c>
       <c r="G17">
-        <v>0.0007424461021221931</v>
+        <v>0.0007424461020757445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.24598965684595</v>
+        <v>5.245989656845893</v>
       </c>
       <c r="C18">
-        <v>1.418225436377497</v>
+        <v>1.41822543637727</v>
       </c>
       <c r="D18">
-        <v>0.01621557927875372</v>
+        <v>0.01621557927887096</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.597550551165597</v>
+        <v>2.597550551165568</v>
       </c>
       <c r="G18">
-        <v>0.0007449330472298793</v>
+        <v>0.0007449330471757183</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.196149417630124</v>
+        <v>5.196149417630181</v>
       </c>
       <c r="C19">
-        <v>1.404862126520072</v>
+        <v>1.404862126519959</v>
       </c>
       <c r="D19">
-        <v>0.01627606885903532</v>
+        <v>0.01627606885925914</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.574010827916055</v>
+        <v>2.574010827916027</v>
       </c>
       <c r="G19">
-        <v>0.0007457757047965069</v>
+        <v>0.0007457757047966914</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.42125811282574</v>
+        <v>5.421258112825797</v>
       </c>
       <c r="C20">
-        <v>1.465213191450857</v>
+        <v>1.465213191451085</v>
       </c>
       <c r="D20">
-        <v>0.01602201213855281</v>
+        <v>0.01602201213858478</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.680828726160456</v>
+        <v>2.680828726160371</v>
       </c>
       <c r="G20">
-        <v>0.0007419860860301553</v>
+        <v>0.0007419860859797736</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,19 +1302,25 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.193654937209089</v>
+        <v>6.193654937208862</v>
       </c>
       <c r="C21">
-        <v>1.672205790631494</v>
+        <v>1.672205790631949</v>
       </c>
       <c r="D21">
-        <v>0.0155170981262458</v>
+        <v>0.01551709812637725</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1209,7 +1329,7 @@
         <v>3.056788281387668</v>
       </c>
       <c r="G21">
-        <v>0.0007292755569687292</v>
+        <v>0.0007292755570266512</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,8 +1349,14 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,10 +1364,10 @@
         <v>6.712670881841746</v>
       </c>
       <c r="C22">
-        <v>1.811255523076227</v>
+        <v>1.811255523076511</v>
       </c>
       <c r="D22">
-        <v>0.0154888678018068</v>
+        <v>0.01548886780192049</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1250,7 +1376,7 @@
         <v>3.317291472339804</v>
       </c>
       <c r="G22">
-        <v>0.0007209575615344704</v>
+        <v>0.0007209575614768008</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,19 +1396,25 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.434205757629741</v>
+        <v>6.434205757629684</v>
       </c>
       <c r="C23">
-        <v>1.73665373937115</v>
+        <v>1.736653739371377</v>
       </c>
       <c r="D23">
-        <v>0.01547337018673289</v>
+        <v>0.01547337018662276</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1291,7 +1423,7 @@
         <v>3.176757806503417</v>
       </c>
       <c r="G23">
-        <v>0.0007253999430757044</v>
+        <v>0.0007253999430754029</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,8 +1443,14 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,10 +1458,10 @@
         <v>5.408841020942475</v>
       </c>
       <c r="C24">
-        <v>1.4618845678296</v>
+        <v>1.461884567829259</v>
       </c>
       <c r="D24">
-        <v>0.01603474881653355</v>
+        <v>0.01603474881632039</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1332,7 +1470,7 @@
         <v>2.674903436160179</v>
       </c>
       <c r="G24">
-        <v>0.0007421940467963184</v>
+        <v>0.0007421940467436495</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,8 +1490,14 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,16 +1508,16 @@
         <v>1.177879969762955</v>
       </c>
       <c r="D25">
-        <v>0.01768125283348709</v>
+        <v>0.01768125283362565</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.184398175477682</v>
+        <v>2.184398175477597</v>
       </c>
       <c r="G25">
-        <v>0.0007604299606814857</v>
+        <v>0.0007604299606849335</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.598669512155993</v>
+        <v>1.129746062526863</v>
       </c>
       <c r="C2">
-        <v>0.9759351589124208</v>
+        <v>0.0972422802729298</v>
       </c>
       <c r="D2">
-        <v>0.01956295938245489</v>
+        <v>0.05306164290824</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.855334649966068</v>
+        <v>0.8949801924837857</v>
       </c>
       <c r="G2">
-        <v>0.0007741164263591328</v>
+        <v>0.825867561015329</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5771538389442838</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6591084299188736</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9769963461435793</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.397972471668993</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.1017865356622</v>
+        <v>0.9800294676842327</v>
       </c>
       <c r="C3">
-        <v>0.8421454571700906</v>
+        <v>0.09231990681297475</v>
       </c>
       <c r="D3">
-        <v>0.02116663526680007</v>
+        <v>0.05140932615918459</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.64762347809372</v>
+        <v>0.8452995799079872</v>
       </c>
       <c r="G3">
-        <v>0.0007836172170305423</v>
+        <v>0.7847502252570706</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5654492264227997</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6445773768540377</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8482586696414103</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3510057121678614</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.801378855550183</v>
+        <v>0.8886450195665816</v>
       </c>
       <c r="C4">
-        <v>0.7611232055460562</v>
+        <v>0.08928907973873379</v>
       </c>
       <c r="D4">
-        <v>0.02228878092945585</v>
+        <v>0.05038441847125696</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.526306085392477</v>
+        <v>0.8163898554770839</v>
       </c>
       <c r="G4">
-        <v>0.0007895797927691154</v>
+        <v>0.7611144030539521</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.559193086289568</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6368290786325872</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7695280406186669</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3226281975054661</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.679948868554732</v>
+        <v>0.8515199200534198</v>
       </c>
       <c r="C5">
-        <v>0.7283378427596574</v>
+        <v>0.08805122021554013</v>
       </c>
       <c r="D5">
-        <v>0.02277740315299503</v>
+        <v>0.04996412609896694</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.478255163737416</v>
+        <v>0.8049859631545573</v>
       </c>
       <c r="G5">
-        <v>0.0007920444154712159</v>
+        <v>0.7518632458019283</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5568666811846299</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6339521391585095</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7375059147178433</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3111690247594794</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.659840063712522</v>
+        <v>0.8453616551655614</v>
       </c>
       <c r="C6">
-        <v>0.722906467499655</v>
+        <v>0.08784548919031465</v>
       </c>
       <c r="D6">
-        <v>0.02286034331159925</v>
+        <v>0.04989417722829614</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.470355256158115</v>
+        <v>0.8031144560988892</v>
       </c>
       <c r="G6">
-        <v>0.0007924558327132172</v>
+        <v>0.7503494023692809</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5564935444497223</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6334909584886788</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7321918612538525</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3092722679360236</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.799737441019033</v>
+        <v>0.8881439001506237</v>
       </c>
       <c r="C7">
-        <v>0.7606801755929382</v>
+        <v>0.0892723975765648</v>
       </c>
       <c r="D7">
-        <v>0.02229524778996606</v>
+        <v>0.05037876095287785</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.525652659865401</v>
+        <v>0.8162345624881482</v>
       </c>
       <c r="G7">
-        <v>0.0007896128875682001</v>
+        <v>0.7609881286862787</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5591608226087033</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6367891619836001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7690959539400239</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.322473244262298</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.426253269843073</v>
+        <v>1.077997851702946</v>
       </c>
       <c r="C8">
-        <v>0.929538468471037</v>
+        <v>0.09554640083158006</v>
       </c>
       <c r="D8">
-        <v>0.02008531356333343</v>
+        <v>0.05249406025677672</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.782313467781506</v>
+        <v>0.8775046095845624</v>
       </c>
       <c r="G8">
-        <v>0.0007773670155964561</v>
+        <v>0.8113409910173317</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5729181524904732</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6538454372588873</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9325310841124974</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3816760716567984</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.70164129492764</v>
+        <v>1.455658774901281</v>
       </c>
       <c r="C9">
-        <v>1.272226010533757</v>
+        <v>0.1078145143524338</v>
       </c>
       <c r="D9">
-        <v>0.01700926801195024</v>
+        <v>0.05656157983087695</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.343942140086767</v>
+        <v>1.011457910016887</v>
       </c>
       <c r="G9">
-        <v>0.0007542562294073907</v>
+        <v>0.9240342612508954</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6078091793559821</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6973108737896041</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.256405603493363</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5019513513066869</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.682746500475218</v>
+        <v>1.737995884696858</v>
       </c>
       <c r="C10">
-        <v>1.535301197584374</v>
+        <v>0.1168558162582869</v>
       </c>
       <c r="D10">
-        <v>0.0157880718607899</v>
+        <v>0.05950436753368393</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.806493293589227</v>
+        <v>1.1200130048841</v>
       </c>
       <c r="G10">
-        <v>0.0007376345729778639</v>
+        <v>1.017092404116411</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6390604205619042</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.7364051029470247</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.497754934218847</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5936575640241557</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.142826035609119</v>
+        <v>1.867885529468168</v>
       </c>
       <c r="C11">
-        <v>1.658587131597244</v>
+        <v>0.1209872578877764</v>
       </c>
       <c r="D11">
-        <v>0.01553316202596022</v>
+        <v>0.06083423736690463</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.031610371166863</v>
+        <v>1.172016590001405</v>
       </c>
       <c r="G11">
-        <v>0.000730099212704229</v>
+        <v>1.062081082967879</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6546893327950016</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7559997479957374</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.608615097293892</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6362942457054999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.319443821885045</v>
+        <v>1.917315302350715</v>
       </c>
       <c r="C12">
-        <v>1.705907501191291</v>
+        <v>0.122555509629052</v>
       </c>
       <c r="D12">
-        <v>0.01548759612242989</v>
+        <v>0.06133665407023159</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.119355932799834</v>
+        <v>1.192123792561887</v>
       </c>
       <c r="G12">
-        <v>0.0007272443761235068</v>
+        <v>1.079537778148861</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6608282360764264</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7637032761895242</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.650778011675357</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6525891179057339</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.281292102493637</v>
+        <v>1.906658311936582</v>
       </c>
       <c r="C13">
-        <v>1.695685934319499</v>
+        <v>0.1222175723832919</v>
       </c>
       <c r="D13">
-        <v>0.01549500406902737</v>
+        <v>0.06122850031553639</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.10034040478601</v>
+        <v>1.187774275351174</v>
       </c>
       <c r="G13">
-        <v>0.0007278593669270321</v>
+        <v>1.075758817952234</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6594960095062135</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.762031187487537</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.641688867526398</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6490727979439441</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.157305844957136</v>
+        <v>1.871947061145903</v>
       </c>
       <c r="C14">
-        <v>1.662466755520654</v>
+        <v>0.1211161967457315</v>
       </c>
       <c r="D14">
-        <v>0.01552834241706336</v>
+        <v>0.06087559447881574</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.038776740757754</v>
+        <v>1.173662286180146</v>
       </c>
       <c r="G14">
-        <v>0.0007298644030427821</v>
+        <v>1.063508596845352</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6551898581810605</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.756627701536523</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.612080032444084</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6376317395077677</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.081686185184537</v>
+        <v>1.850718185454411</v>
       </c>
       <c r="C15">
-        <v>1.642205461918934</v>
+        <v>0.12044209722049</v>
       </c>
       <c r="D15">
-        <v>0.01555565422053817</v>
+        <v>0.06065927930080761</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.001405127079437</v>
+        <v>1.165073445619996</v>
       </c>
       <c r="G15">
-        <v>0.0007310922033585514</v>
+        <v>1.056060937821613</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6525814845632141</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7533555447087821</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.593968441223012</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6306437350631171</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.652990293917867</v>
+        <v>1.729539408114817</v>
       </c>
       <c r="C16">
-        <v>1.527326266412672</v>
+        <v>0.1165862810876988</v>
       </c>
       <c r="D16">
-        <v>0.01581140929195257</v>
+        <v>0.05941728745750652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.792108637555089</v>
+        <v>1.116670342198447</v>
       </c>
       <c r="G16">
-        <v>0.0007381271317405462</v>
+        <v>1.01420895457241</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6380689170109832</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7351629107499562</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.490533884678001</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5908910823423952</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.393800947983152</v>
+        <v>1.655595918429071</v>
       </c>
       <c r="C17">
-        <v>1.457852753002271</v>
+        <v>0.114226354265142</v>
       </c>
       <c r="D17">
-        <v>0.01605037481450111</v>
+        <v>0.05865316745941129</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.667731642701426</v>
+        <v>1.087673798620969</v>
       </c>
       <c r="G17">
-        <v>0.0007424461020757445</v>
+        <v>0.9892408061839859</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6295396773153215</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7244818774939006</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.427373717721537</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5667512570441033</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.245989656845893</v>
+        <v>1.613200121868033</v>
       </c>
       <c r="C18">
-        <v>1.41822543637727</v>
+        <v>0.1128706566223769</v>
       </c>
       <c r="D18">
-        <v>0.01621557927887096</v>
+        <v>0.05821282931965044</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.597550551165568</v>
+        <v>1.071240055448285</v>
       </c>
       <c r="G18">
-        <v>0.0007449330471757183</v>
+        <v>0.975127299154309</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6247657134231162</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7185073476188748</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.391144425496009</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5529520686429521</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.196149417630181</v>
+        <v>1.598867739126945</v>
       </c>
       <c r="C19">
-        <v>1.404862126519959</v>
+        <v>0.1124118956309417</v>
       </c>
       <c r="D19">
-        <v>0.01627606885925914</v>
+        <v>0.05806359216970947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.574010827916027</v>
+        <v>1.065716735011918</v>
       </c>
       <c r="G19">
-        <v>0.0007457757047966914</v>
+        <v>0.9703900967707</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6231714650937619</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.716512812931434</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.378893933830625</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5482940692181018</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.421258112825797</v>
+        <v>1.6634531642365</v>
       </c>
       <c r="C20">
-        <v>1.465213191451085</v>
+        <v>0.114477392035603</v>
       </c>
       <c r="D20">
-        <v>0.01602201213858478</v>
+        <v>0.0587345952986098</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.680828726160371</v>
+        <v>1.090734983179487</v>
       </c>
       <c r="G20">
-        <v>0.0007419860859797736</v>
+        <v>0.9918728229056342</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6304338638950071</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7256012480123815</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.434086802432631</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.569312024459478</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.193654937208862</v>
+        <v>1.882135702514603</v>
       </c>
       <c r="C21">
-        <v>1.672205790631949</v>
+        <v>0.1214395859629249</v>
       </c>
       <c r="D21">
-        <v>0.01551709812637725</v>
+        <v>0.06097928258453322</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.056788281387668</v>
+        <v>1.177795752470288</v>
       </c>
       <c r="G21">
-        <v>0.0007292755570266512</v>
+        <v>1.06709504932698</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.656448546436124</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7582069493456061</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.620771667718373</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6409880604856824</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.712670881841746</v>
+        <v>2.02649415555976</v>
       </c>
       <c r="C22">
-        <v>1.811255523076511</v>
+        <v>0.1260123177910657</v>
       </c>
       <c r="D22">
-        <v>0.01548886780192049</v>
+        <v>0.06243951452097463</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.317291472339804</v>
+        <v>1.237131246044044</v>
       </c>
       <c r="G22">
-        <v>0.0007209575614768008</v>
+        <v>1.11872817464662</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6747455155117308</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.781181060380689</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.743860440807822</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6887116564331279</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.434205757629684</v>
+        <v>1.949303708739109</v>
       </c>
       <c r="C23">
-        <v>1.736653739371377</v>
+        <v>0.1235693089199756</v>
       </c>
       <c r="D23">
-        <v>0.01547337018662276</v>
+        <v>0.06166074888514572</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.176757806503417</v>
+        <v>1.205226585699535</v>
       </c>
       <c r="G23">
-        <v>0.0007253999430754029</v>
+        <v>1.090930903502255</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6648554359591401</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7687588946570898</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.678056686759305</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6631541907074165</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.408841020942475</v>
+        <v>1.659900546838401</v>
       </c>
       <c r="C24">
-        <v>1.461884567829259</v>
+        <v>0.114363894653259</v>
       </c>
       <c r="D24">
-        <v>0.01603474881632039</v>
+        <v>0.05869778500412792</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.674903436160179</v>
+        <v>1.089350287005516</v>
       </c>
       <c r="G24">
-        <v>0.0007421940467436495</v>
+        <v>0.9906821403136092</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6300291997384022</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7250946648411229</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.431051562547395</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.568154056351176</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.350130130839602</v>
+        <v>1.352759744788273</v>
       </c>
       <c r="C25">
-        <v>1.177879969762955</v>
+        <v>0.1044946024952367</v>
       </c>
       <c r="D25">
-        <v>0.01768125283362565</v>
+        <v>0.05546951636842223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.184398175477597</v>
+        <v>0.9735719298260648</v>
       </c>
       <c r="G25">
-        <v>0.0007604299606849335</v>
+        <v>0.8918807052478712</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5974448734572633</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6843758732112519</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.168295270532752</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4688880736009509</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.129746062526863</v>
+        <v>0.5656572556951005</v>
       </c>
       <c r="C2">
-        <v>0.0972422802729298</v>
+        <v>0.1011745124650645</v>
       </c>
       <c r="D2">
-        <v>0.05306164290824</v>
+        <v>0.05147103804321063</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8949801924837857</v>
+        <v>1.202792717630317</v>
       </c>
       <c r="G2">
-        <v>0.825867561015329</v>
+        <v>1.074386414929208</v>
       </c>
       <c r="H2">
-        <v>0.5771538389442838</v>
+        <v>1.065747477021972</v>
       </c>
       <c r="I2">
-        <v>0.6591084299188736</v>
+        <v>1.091568419121032</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9769963461435793</v>
+        <v>0.3442417395016832</v>
       </c>
       <c r="L2">
-        <v>0.397972471668993</v>
+        <v>0.3037225118552982</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9800294676842327</v>
+        <v>0.5252628992619748</v>
       </c>
       <c r="C3">
-        <v>0.09231990681297475</v>
+        <v>0.09935451473029389</v>
       </c>
       <c r="D3">
-        <v>0.05140932615918459</v>
+        <v>0.05065505260682457</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8452995799079872</v>
+        <v>1.196938372930227</v>
       </c>
       <c r="G3">
-        <v>0.7847502252570706</v>
+        <v>1.070033925374418</v>
       </c>
       <c r="H3">
-        <v>0.5654492264227997</v>
+        <v>1.068421079425974</v>
       </c>
       <c r="I3">
-        <v>0.6445773768540377</v>
+        <v>1.093844930269817</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8482586696414103</v>
+        <v>0.3073039585933657</v>
       </c>
       <c r="L3">
-        <v>0.3510057121678614</v>
+        <v>0.2926883187876967</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8886450195665816</v>
+        <v>0.5006870167006809</v>
       </c>
       <c r="C4">
-        <v>0.08928907973873379</v>
+        <v>0.09821731973729442</v>
       </c>
       <c r="D4">
-        <v>0.05038441847125696</v>
+        <v>0.05014546337182324</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8163898554770839</v>
+        <v>1.194012476497484</v>
       </c>
       <c r="G4">
-        <v>0.7611144030539521</v>
+        <v>1.067991152768897</v>
       </c>
       <c r="H4">
-        <v>0.559193086289568</v>
+        <v>1.070520786456527</v>
       </c>
       <c r="I4">
-        <v>0.6368290786325872</v>
+        <v>1.095767598040105</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7695280406186669</v>
+        <v>0.2846893843581881</v>
       </c>
       <c r="L4">
-        <v>0.3226281975054661</v>
+        <v>0.2860901357356767</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8515199200534198</v>
+        <v>0.4907295082801966</v>
       </c>
       <c r="C5">
-        <v>0.08805122021554013</v>
+        <v>0.09774894952183644</v>
       </c>
       <c r="D5">
-        <v>0.04996412609896694</v>
+        <v>0.04993565995045657</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8049859631545573</v>
+        <v>1.192988189999326</v>
       </c>
       <c r="G5">
-        <v>0.7518632458019283</v>
+        <v>1.067316834754081</v>
       </c>
       <c r="H5">
-        <v>0.5568666811846299</v>
+        <v>1.071491638621268</v>
       </c>
       <c r="I5">
-        <v>0.6339521391585095</v>
+        <v>1.096683015764668</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7375059147178433</v>
+        <v>0.2754905014299567</v>
       </c>
       <c r="L5">
-        <v>0.3111690247594794</v>
+        <v>0.2834457935115466</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8453616551655614</v>
+        <v>0.4890795489263269</v>
       </c>
       <c r="C6">
-        <v>0.08784548919031465</v>
+        <v>0.09767087785827044</v>
       </c>
       <c r="D6">
-        <v>0.04989417722829614</v>
+        <v>0.04990069330305147</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8031144560988892</v>
+        <v>1.192828254050958</v>
       </c>
       <c r="G6">
-        <v>0.7503494023692809</v>
+        <v>1.067214409246915</v>
       </c>
       <c r="H6">
-        <v>0.5564935444497223</v>
+        <v>1.071659806277168</v>
       </c>
       <c r="I6">
-        <v>0.6334909584886788</v>
+        <v>1.096842985469173</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7321918612538525</v>
+        <v>0.2739640539190589</v>
       </c>
       <c r="L6">
-        <v>0.3092722679360236</v>
+        <v>0.2830093884369944</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8881439001506237</v>
+        <v>0.5005524934260563</v>
       </c>
       <c r="C7">
-        <v>0.0892723975765648</v>
+        <v>0.09821102318822028</v>
       </c>
       <c r="D7">
-        <v>0.05037876095287785</v>
+        <v>0.05014264254300116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8162345624881482</v>
+        <v>1.193997982371421</v>
       </c>
       <c r="G7">
-        <v>0.7609881286862787</v>
+        <v>1.067981418703837</v>
       </c>
       <c r="H7">
-        <v>0.5591608226087033</v>
+        <v>1.070533413239687</v>
       </c>
       <c r="I7">
-        <v>0.6367891619836001</v>
+        <v>1.09577940966183</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7690959539400239</v>
+        <v>0.2845652568251751</v>
       </c>
       <c r="L7">
-        <v>0.322473244262298</v>
+        <v>0.2860542931502579</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.077997851702946</v>
+        <v>0.5516825319592726</v>
       </c>
       <c r="C8">
-        <v>0.09554640083158006</v>
+        <v>0.1005510685447035</v>
       </c>
       <c r="D8">
-        <v>0.05249406025677672</v>
+        <v>0.05119147300122862</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8775046095845624</v>
+        <v>1.200635281624002</v>
       </c>
       <c r="G8">
-        <v>0.8113409910173317</v>
+        <v>1.07275485848352</v>
       </c>
       <c r="H8">
-        <v>0.5729181524904732</v>
+        <v>1.066574260115999</v>
       </c>
       <c r="I8">
-        <v>0.6538454372588873</v>
+        <v>1.092244376802363</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9325310841124974</v>
+        <v>0.3314921927980947</v>
       </c>
       <c r="L8">
-        <v>0.3816760716567984</v>
+        <v>0.2998812107112201</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.455658774901281</v>
+        <v>0.6537316979938339</v>
       </c>
       <c r="C9">
-        <v>0.1078145143524338</v>
+        <v>0.1049836078914979</v>
       </c>
       <c r="D9">
-        <v>0.05656157983087695</v>
+        <v>0.05317971398915233</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.011457910016887</v>
+        <v>1.218963978473354</v>
       </c>
       <c r="G9">
-        <v>0.9240342612508954</v>
+        <v>1.087123031628678</v>
       </c>
       <c r="H9">
-        <v>0.6078091793559821</v>
+        <v>1.062445586976835</v>
       </c>
       <c r="I9">
-        <v>0.6973108737896041</v>
+        <v>1.089481021723572</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.256405603493363</v>
+        <v>0.4240260843091335</v>
       </c>
       <c r="L9">
-        <v>0.5019513513066869</v>
+        <v>0.3284008993743157</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.737995884696858</v>
+        <v>0.729785019388288</v>
       </c>
       <c r="C10">
-        <v>0.1168558162582869</v>
+        <v>0.1081453303912383</v>
       </c>
       <c r="D10">
-        <v>0.05950436753368393</v>
+        <v>0.05459815773000543</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.1200130048841</v>
+        <v>1.235682227272761</v>
       </c>
       <c r="G10">
-        <v>1.017092404116411</v>
+        <v>1.100750404634127</v>
       </c>
       <c r="H10">
-        <v>0.6390604205619042</v>
+        <v>1.061630082472277</v>
       </c>
       <c r="I10">
-        <v>0.7364051029470247</v>
+        <v>1.089999337748132</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.497754934218847</v>
+        <v>0.4923177158918577</v>
       </c>
       <c r="L10">
-        <v>0.5936575640241557</v>
+        <v>0.3502161561199273</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.867885529468168</v>
+        <v>0.764616265387275</v>
       </c>
       <c r="C11">
-        <v>0.1209872578877764</v>
+        <v>0.1095631867557287</v>
       </c>
       <c r="D11">
-        <v>0.06083423736690463</v>
+        <v>0.05523415038083357</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.172016590001405</v>
+        <v>1.243997015044044</v>
       </c>
       <c r="G11">
-        <v>1.062081082967879</v>
+        <v>1.10762082765676</v>
       </c>
       <c r="H11">
-        <v>0.6546893327950016</v>
+        <v>1.061741132593767</v>
       </c>
       <c r="I11">
-        <v>0.7559997479957374</v>
+        <v>1.090790157955794</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.608615097293892</v>
+        <v>0.5234516165358798</v>
       </c>
       <c r="L11">
-        <v>0.6362942457054999</v>
+        <v>0.3603289084425825</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.917315302350715</v>
+        <v>0.77783933075969</v>
       </c>
       <c r="C12">
-        <v>0.122555509629052</v>
+        <v>0.1100971571192204</v>
       </c>
       <c r="D12">
-        <v>0.06133665407023159</v>
+        <v>0.05547364073434125</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.192123792561887</v>
+        <v>1.247247825025681</v>
       </c>
       <c r="G12">
-        <v>1.079537778148861</v>
+        <v>1.110319282948524</v>
       </c>
       <c r="H12">
-        <v>0.6608282360764264</v>
+        <v>1.061852518868662</v>
       </c>
       <c r="I12">
-        <v>0.7637032761895242</v>
+        <v>1.09116954344087</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.650778011675357</v>
+        <v>0.5352507580993802</v>
       </c>
       <c r="L12">
-        <v>0.6525891179057339</v>
+        <v>0.3641855526687721</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.906658311936582</v>
+        <v>0.774990036333719</v>
       </c>
       <c r="C13">
-        <v>0.1222175723832919</v>
+        <v>0.1099822879103414</v>
       </c>
       <c r="D13">
-        <v>0.06122850031553639</v>
+        <v>0.05542212229864418</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.187774275351174</v>
+        <v>1.246543158138479</v>
       </c>
       <c r="G13">
-        <v>1.075758817952234</v>
+        <v>1.109733814267585</v>
       </c>
       <c r="H13">
-        <v>0.6594960095062135</v>
+        <v>1.061825445883841</v>
       </c>
       <c r="I13">
-        <v>0.762031187487537</v>
+        <v>1.091084279886402</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.641688867526398</v>
+        <v>0.5327091885300206</v>
       </c>
       <c r="L13">
-        <v>0.6490727979439441</v>
+        <v>0.3633537471339849</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.871947061145903</v>
+        <v>0.765703471554076</v>
       </c>
       <c r="C14">
-        <v>0.1211161967457315</v>
+        <v>0.1096071757829478</v>
       </c>
       <c r="D14">
-        <v>0.06087559447881574</v>
+        <v>0.05525388045648327</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.173662286180146</v>
+        <v>1.244262412466327</v>
       </c>
       <c r="G14">
-        <v>1.063508596845352</v>
+        <v>1.107840890258004</v>
       </c>
       <c r="H14">
-        <v>0.6551898581810605</v>
+        <v>1.061748906742693</v>
       </c>
       <c r="I14">
-        <v>0.756627701536523</v>
+        <v>1.090819767927009</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.612080032444084</v>
+        <v>0.5244221522952444</v>
       </c>
       <c r="L14">
-        <v>0.6376317395077677</v>
+        <v>0.3606456524499038</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.850718185454411</v>
+        <v>0.7600194964959712</v>
       </c>
       <c r="C15">
-        <v>0.12044209722049</v>
+        <v>0.1093770256531457</v>
       </c>
       <c r="D15">
-        <v>0.06065927930080761</v>
+        <v>0.05515065173540989</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.165073445619996</v>
+        <v>1.24287870105951</v>
       </c>
       <c r="G15">
-        <v>1.056060937821613</v>
+        <v>1.106694029993974</v>
       </c>
       <c r="H15">
-        <v>0.6525814845632141</v>
+        <v>1.061711054215223</v>
       </c>
       <c r="I15">
-        <v>0.7533555447087821</v>
+        <v>1.090668157664332</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.593968441223012</v>
+        <v>0.5193473190492739</v>
       </c>
       <c r="L15">
-        <v>0.6306437350631171</v>
+        <v>0.3589904039667289</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.729539408114817</v>
+        <v>0.7275133898390322</v>
       </c>
       <c r="C16">
-        <v>0.1165862810876988</v>
+        <v>0.1080522587800914</v>
       </c>
       <c r="D16">
-        <v>0.05941728745750652</v>
+        <v>0.05455640648478521</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.116670342198447</v>
+        <v>1.23515312713117</v>
       </c>
       <c r="G16">
-        <v>1.01420895457241</v>
+        <v>1.100314935107548</v>
       </c>
       <c r="H16">
-        <v>0.6380689170109832</v>
+        <v>1.061632526326349</v>
       </c>
       <c r="I16">
-        <v>0.7351629107499562</v>
+        <v>1.089958833550568</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.490533884678001</v>
+        <v>0.4902843765839009</v>
       </c>
       <c r="L16">
-        <v>0.5908910823423952</v>
+        <v>0.3495590650563543</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.655595918429071</v>
+        <v>0.7076316111472067</v>
       </c>
       <c r="C17">
-        <v>0.114226354265142</v>
+        <v>0.1072343226867005</v>
       </c>
       <c r="D17">
-        <v>0.05865316745941129</v>
+        <v>0.05418947334470658</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.087673798620969</v>
+        <v>1.230595579454132</v>
       </c>
       <c r="G17">
-        <v>0.9892408061839859</v>
+        <v>1.096573670505833</v>
       </c>
       <c r="H17">
-        <v>0.6295396773153215</v>
+        <v>1.061707824189313</v>
       </c>
       <c r="I17">
-        <v>0.7244818774939006</v>
+        <v>1.089665919273912</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.427373717721537</v>
+        <v>0.472472308652641</v>
       </c>
       <c r="L17">
-        <v>0.5667512570441033</v>
+        <v>0.3438216238274094</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.613200121868033</v>
+        <v>0.6962182094396496</v>
       </c>
       <c r="C18">
-        <v>0.1128706566223769</v>
+        <v>0.1067619449989721</v>
       </c>
       <c r="D18">
-        <v>0.05821282931965044</v>
+        <v>0.05397755190961817</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.071240055448285</v>
+        <v>1.228040978286771</v>
       </c>
       <c r="G18">
-        <v>0.975127299154309</v>
+        <v>1.094484961666666</v>
       </c>
       <c r="H18">
-        <v>0.6247657134231162</v>
+        <v>1.061796503031502</v>
       </c>
       <c r="I18">
-        <v>0.7185073476188748</v>
+        <v>1.089549678991531</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.391144425496009</v>
+        <v>0.4622336693346654</v>
       </c>
       <c r="L18">
-        <v>0.5529520686429521</v>
+        <v>0.3405393777143075</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.598867739126945</v>
+        <v>0.6923576323197267</v>
       </c>
       <c r="C19">
-        <v>0.1124118956309417</v>
+        <v>0.1066016759576556</v>
       </c>
       <c r="D19">
-        <v>0.05806359216970947</v>
+        <v>0.05390564975547107</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.065716735011918</v>
+        <v>1.227187499291773</v>
       </c>
       <c r="G19">
-        <v>0.9703900967707</v>
+        <v>1.093788602262549</v>
       </c>
       <c r="H19">
-        <v>0.6231714650937619</v>
+        <v>1.061834319850163</v>
       </c>
       <c r="I19">
-        <v>0.716512812931434</v>
+        <v>1.089519290444301</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.378893933830625</v>
+        <v>0.4587681496107621</v>
       </c>
       <c r="L19">
-        <v>0.5482940692181018</v>
+        <v>0.3394311189208707</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.6634531642365</v>
+        <v>0.7097457793824447</v>
       </c>
       <c r="C20">
-        <v>0.114477392035603</v>
+        <v>0.1073215923763726</v>
       </c>
       <c r="D20">
-        <v>0.0587345952986098</v>
+        <v>0.05422862427151642</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.090734983179487</v>
+        <v>1.231073825681776</v>
       </c>
       <c r="G20">
-        <v>0.9918728229056342</v>
+        <v>1.09696539509406</v>
       </c>
       <c r="H20">
-        <v>0.6304338638950071</v>
+        <v>1.061695112889922</v>
       </c>
       <c r="I20">
-        <v>0.7256012480123815</v>
+        <v>1.089691693473199</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.434086802432631</v>
+        <v>0.4743677746092203</v>
       </c>
       <c r="L20">
-        <v>0.569312024459478</v>
+        <v>0.3444305442279756</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.882135702514603</v>
+        <v>0.7684302625029602</v>
       </c>
       <c r="C21">
-        <v>0.1214395859629249</v>
+        <v>0.1097174351561776</v>
       </c>
       <c r="D21">
-        <v>0.06097928258453322</v>
+        <v>0.0553033338105493</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.177795752470288</v>
+        <v>1.244929548462721</v>
       </c>
       <c r="G21">
-        <v>1.06709504932698</v>
+        <v>1.108394259497246</v>
       </c>
       <c r="H21">
-        <v>0.656448546436124</v>
+        <v>1.061769506284591</v>
       </c>
       <c r="I21">
-        <v>0.7582069493456061</v>
+        <v>1.090895291680297</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.620771667718373</v>
+        <v>0.5268560029378193</v>
       </c>
       <c r="L21">
-        <v>0.6409880604856824</v>
+        <v>0.3614403482435478</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.02649415555976</v>
+        <v>0.8069774388156361</v>
       </c>
       <c r="C22">
-        <v>0.1260123177910657</v>
+        <v>0.1112661124971694</v>
       </c>
       <c r="D22">
-        <v>0.06243951452097463</v>
+        <v>0.05599786524703632</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.237131246044044</v>
+        <v>1.25458071594187</v>
       </c>
       <c r="G22">
-        <v>1.11872817464662</v>
+        <v>1.116427877790827</v>
       </c>
       <c r="H22">
-        <v>0.6747455155117308</v>
+        <v>1.062222267467916</v>
       </c>
       <c r="I22">
-        <v>0.781181060380689</v>
+        <v>1.092147790967594</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.743860440807822</v>
+        <v>0.5612147886716627</v>
       </c>
       <c r="L22">
-        <v>0.6887116564331279</v>
+        <v>0.3727155749265876</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.949303708739109</v>
+        <v>0.7863865304301214</v>
       </c>
       <c r="C23">
-        <v>0.1235693089199756</v>
+        <v>0.1104411241488421</v>
       </c>
       <c r="D23">
-        <v>0.06166074888514572</v>
+        <v>0.05562790390894889</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.205226585699535</v>
+        <v>1.249375156448281</v>
       </c>
       <c r="G23">
-        <v>1.090930903502255</v>
+        <v>1.112088478760896</v>
       </c>
       <c r="H23">
-        <v>0.6648554359591401</v>
+        <v>1.061943634983137</v>
       </c>
       <c r="I23">
-        <v>0.7687588946570898</v>
+        <v>1.091436645759025</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.678056686759305</v>
+        <v>0.5428719603580987</v>
       </c>
       <c r="L23">
-        <v>0.6631541907074165</v>
+        <v>0.3666832853453315</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.659900546838401</v>
+        <v>0.7087899112572131</v>
       </c>
       <c r="C24">
-        <v>0.114363894653259</v>
+        <v>0.1072821444013172</v>
       </c>
       <c r="D24">
-        <v>0.05869778500412792</v>
+        <v>0.05421092714679787</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.089350287005516</v>
+        <v>1.230857406248475</v>
       </c>
       <c r="G24">
-        <v>0.9906821403136092</v>
+        <v>1.09678810269196</v>
       </c>
       <c r="H24">
-        <v>0.6300291997384022</v>
+        <v>1.061700718279283</v>
       </c>
       <c r="I24">
-        <v>0.7250946648411229</v>
+        <v>1.089679878485164</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.431051562547395</v>
+        <v>0.4735108289594905</v>
       </c>
       <c r="L24">
-        <v>0.568154056351176</v>
+        <v>0.344155200591203</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.352759744788273</v>
+        <v>0.6259347594419751</v>
       </c>
       <c r="C25">
-        <v>0.1044946024952367</v>
+        <v>0.1038011778634242</v>
       </c>
       <c r="D25">
-        <v>0.05546951636842223</v>
+        <v>0.05264923460156012</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9735719298260648</v>
+        <v>1.213435420969873</v>
       </c>
       <c r="G25">
-        <v>0.8918807052478712</v>
+        <v>1.082698072909295</v>
       </c>
       <c r="H25">
-        <v>0.5974448734572633</v>
+        <v>1.063173153093686</v>
       </c>
       <c r="I25">
-        <v>0.6843758732112519</v>
+        <v>1.089781544329739</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.168295270532752</v>
+        <v>0.3989390192569431</v>
       </c>
       <c r="L25">
-        <v>0.4688880736009509</v>
+        <v>0.3205345975156035</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5656572556951005</v>
+        <v>1.129746062526749</v>
       </c>
       <c r="C2">
-        <v>0.1011745124650645</v>
+        <v>0.09724228027268822</v>
       </c>
       <c r="D2">
-        <v>0.05147103804321063</v>
+        <v>0.05306164290840343</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.202792717630317</v>
+        <v>0.8949801924837857</v>
       </c>
       <c r="G2">
-        <v>1.074386414929208</v>
+        <v>0.8258675610154</v>
       </c>
       <c r="H2">
-        <v>1.065747477021972</v>
+        <v>0.5771538389442696</v>
       </c>
       <c r="I2">
-        <v>1.091568419121032</v>
+        <v>0.6591084299188736</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3442417395016832</v>
+        <v>0.9769963461437499</v>
       </c>
       <c r="L2">
-        <v>0.3037225118552982</v>
+        <v>0.3979724716689788</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5252628992619748</v>
+        <v>0.9800294676842043</v>
       </c>
       <c r="C3">
-        <v>0.09935451473029389</v>
+        <v>0.09231990681298896</v>
       </c>
       <c r="D3">
-        <v>0.05065505260682457</v>
+        <v>0.05140932615923788</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.196938372930227</v>
+        <v>0.8452995799079659</v>
       </c>
       <c r="G3">
-        <v>1.070033925374418</v>
+        <v>0.7847502252570706</v>
       </c>
       <c r="H3">
-        <v>1.068421079425974</v>
+        <v>0.5654492264228139</v>
       </c>
       <c r="I3">
-        <v>1.093844930269817</v>
+        <v>0.6445773768540377</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3073039585933657</v>
+        <v>0.8482586696413534</v>
       </c>
       <c r="L3">
-        <v>0.2926883187876967</v>
+        <v>0.3510057121678898</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5006870167006809</v>
+        <v>0.8886450195665816</v>
       </c>
       <c r="C4">
-        <v>0.09821731973729442</v>
+        <v>0.08928907973883327</v>
       </c>
       <c r="D4">
-        <v>0.05014546337182324</v>
+        <v>0.05038441847113262</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.194012476497484</v>
+        <v>0.8163898554770697</v>
       </c>
       <c r="G4">
-        <v>1.067991152768897</v>
+        <v>0.7611144030539236</v>
       </c>
       <c r="H4">
-        <v>1.070520786456527</v>
+        <v>0.5591930862896675</v>
       </c>
       <c r="I4">
-        <v>1.095767598040105</v>
+        <v>0.636829078632573</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2846893843581881</v>
+        <v>0.7695280406185248</v>
       </c>
       <c r="L4">
-        <v>0.2860901357356767</v>
+        <v>0.3226281975053809</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4907295082801966</v>
+        <v>0.8515199200533914</v>
       </c>
       <c r="C5">
-        <v>0.09774894952183644</v>
+        <v>0.08805122021519907</v>
       </c>
       <c r="D5">
-        <v>0.04993565995045657</v>
+        <v>0.0499641260989705</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.192988189999326</v>
+        <v>0.8049859631545573</v>
       </c>
       <c r="G5">
-        <v>1.067316834754081</v>
+        <v>0.7518632458019425</v>
       </c>
       <c r="H5">
-        <v>1.071491638621268</v>
+        <v>0.5568666811846299</v>
       </c>
       <c r="I5">
-        <v>1.096683015764668</v>
+        <v>0.6339521391585308</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2754905014299567</v>
+        <v>0.7375059147177296</v>
       </c>
       <c r="L5">
-        <v>0.2834457935115466</v>
+        <v>0.3111690247593231</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4890795489263269</v>
+        <v>0.8453616551654477</v>
       </c>
       <c r="C6">
-        <v>0.09767087785827044</v>
+        <v>0.08784548919030044</v>
       </c>
       <c r="D6">
-        <v>0.04990069330305147</v>
+        <v>0.0498941772281718</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.192828254050958</v>
+        <v>0.8031144560989105</v>
       </c>
       <c r="G6">
-        <v>1.067214409246915</v>
+        <v>0.7503494023692951</v>
       </c>
       <c r="H6">
-        <v>1.071659806277168</v>
+        <v>0.5564935444497365</v>
       </c>
       <c r="I6">
-        <v>1.096842985469173</v>
+        <v>0.633490958488693</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2739640539190589</v>
+        <v>0.7321918612538241</v>
       </c>
       <c r="L6">
-        <v>0.2830093884369944</v>
+        <v>0.3092722679359809</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5005524934260563</v>
+        <v>0.8881439001503963</v>
       </c>
       <c r="C7">
-        <v>0.09821102318822028</v>
+        <v>0.08927239757622374</v>
       </c>
       <c r="D7">
-        <v>0.05014264254300116</v>
+        <v>0.05037876095294891</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.193997982371421</v>
+        <v>0.8162345624881482</v>
       </c>
       <c r="G7">
-        <v>1.067981418703837</v>
+        <v>0.7609881286861935</v>
       </c>
       <c r="H7">
-        <v>1.070533413239687</v>
+        <v>0.5591608226088312</v>
       </c>
       <c r="I7">
-        <v>1.09577940966183</v>
+        <v>0.6367891619835717</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2845652568251751</v>
+        <v>0.7690959539399671</v>
       </c>
       <c r="L7">
-        <v>0.2860542931502579</v>
+        <v>0.3224732442623122</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5516825319592726</v>
+        <v>1.077997851702833</v>
       </c>
       <c r="C8">
-        <v>0.1005510685447035</v>
+        <v>0.09554640083145927</v>
       </c>
       <c r="D8">
-        <v>0.05119147300122862</v>
+        <v>0.05249406025677317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.200635281624002</v>
+        <v>0.8775046095845767</v>
       </c>
       <c r="G8">
-        <v>1.07275485848352</v>
+        <v>0.8113409910173459</v>
       </c>
       <c r="H8">
-        <v>1.066574260115999</v>
+        <v>0.572918152490459</v>
       </c>
       <c r="I8">
-        <v>1.092244376802363</v>
+        <v>0.6538454372588802</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3314921927980947</v>
+        <v>0.9325310841125827</v>
       </c>
       <c r="L8">
-        <v>0.2998812107112201</v>
+        <v>0.3816760716568268</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6537316979938339</v>
+        <v>1.455658774901281</v>
       </c>
       <c r="C9">
-        <v>0.1049836078914979</v>
+        <v>0.1078145143524267</v>
       </c>
       <c r="D9">
-        <v>0.05317971398915233</v>
+        <v>0.05656157983099064</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.218963978473354</v>
+        <v>1.011457910016873</v>
       </c>
       <c r="G9">
-        <v>1.087123031628678</v>
+        <v>0.9240342612509096</v>
       </c>
       <c r="H9">
-        <v>1.062445586976835</v>
+        <v>0.60780917935611</v>
       </c>
       <c r="I9">
-        <v>1.089481021723572</v>
+        <v>0.6973108737896112</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4240260843091335</v>
+        <v>1.256405603493448</v>
       </c>
       <c r="L9">
-        <v>0.3284008993743157</v>
+        <v>0.5019513513067579</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.729785019388288</v>
+        <v>1.737995884696801</v>
       </c>
       <c r="C10">
-        <v>0.1081453303912383</v>
+        <v>0.1168558162581306</v>
       </c>
       <c r="D10">
-        <v>0.05459815773000543</v>
+        <v>0.05950436753361288</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.235682227272761</v>
+        <v>1.120013004884086</v>
       </c>
       <c r="G10">
-        <v>1.100750404634127</v>
+        <v>1.01709240411634</v>
       </c>
       <c r="H10">
-        <v>1.061630082472277</v>
+        <v>0.6390604205619042</v>
       </c>
       <c r="I10">
-        <v>1.089999337748132</v>
+        <v>0.7364051029470104</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4923177158918577</v>
+        <v>1.497754934218875</v>
       </c>
       <c r="L10">
-        <v>0.3502161561199273</v>
+        <v>0.5936575640241415</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.764616265387275</v>
+        <v>1.867885529468111</v>
       </c>
       <c r="C11">
-        <v>0.1095631867557287</v>
+        <v>0.1209872578879114</v>
       </c>
       <c r="D11">
-        <v>0.05523415038083357</v>
+        <v>0.06083423736696858</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.243997015044044</v>
+        <v>1.172016590001419</v>
       </c>
       <c r="G11">
-        <v>1.10762082765676</v>
+        <v>1.06208108296785</v>
       </c>
       <c r="H11">
-        <v>1.061741132593767</v>
+        <v>0.6546893327950016</v>
       </c>
       <c r="I11">
-        <v>1.090790157955794</v>
+        <v>0.7559997479957445</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5234516165358798</v>
+        <v>1.608615097293807</v>
       </c>
       <c r="L11">
-        <v>0.3603289084425825</v>
+        <v>0.6362942457054714</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.77783933075969</v>
+        <v>1.917315302350715</v>
       </c>
       <c r="C12">
-        <v>0.1100971571192204</v>
+        <v>0.1225555096292865</v>
       </c>
       <c r="D12">
-        <v>0.05547364073434125</v>
+        <v>0.0613366540701179</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.247247825025681</v>
+        <v>1.192123792561901</v>
       </c>
       <c r="G12">
-        <v>1.110319282948524</v>
+        <v>1.079537778148847</v>
       </c>
       <c r="H12">
-        <v>1.061852518868662</v>
+        <v>0.6608282360764264</v>
       </c>
       <c r="I12">
-        <v>1.09116954344087</v>
+        <v>0.7637032761895099</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5352507580993802</v>
+        <v>1.6507780116753</v>
       </c>
       <c r="L12">
-        <v>0.3641855526687721</v>
+        <v>0.6525891179057197</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.774990036333719</v>
+        <v>1.906658311936695</v>
       </c>
       <c r="C13">
-        <v>0.1099822879103414</v>
+        <v>0.1222175723834056</v>
       </c>
       <c r="D13">
-        <v>0.05542212229864418</v>
+        <v>0.06122850031552929</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.246543158138479</v>
+        <v>1.187774275351174</v>
       </c>
       <c r="G13">
-        <v>1.109733814267585</v>
+        <v>1.075758817952234</v>
       </c>
       <c r="H13">
-        <v>1.061825445883841</v>
+        <v>0.6594960095062135</v>
       </c>
       <c r="I13">
-        <v>1.091084279886402</v>
+        <v>0.762031187487537</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5327091885300206</v>
+        <v>1.641688867526341</v>
       </c>
       <c r="L13">
-        <v>0.3633537471339849</v>
+        <v>0.6490727979439441</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.765703471554076</v>
+        <v>1.871947061146045</v>
       </c>
       <c r="C14">
-        <v>0.1096071757829478</v>
+        <v>0.1211161967457244</v>
       </c>
       <c r="D14">
-        <v>0.05525388045648327</v>
+        <v>0.06087559447892232</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.244262412466327</v>
+        <v>1.173662286180175</v>
       </c>
       <c r="G14">
-        <v>1.107840890258004</v>
+        <v>1.063508596845367</v>
       </c>
       <c r="H14">
-        <v>1.061748906742693</v>
+        <v>0.6551898581809468</v>
       </c>
       <c r="I14">
-        <v>1.090819767927009</v>
+        <v>0.7566277015365372</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5244221522952444</v>
+        <v>1.61208003244414</v>
       </c>
       <c r="L14">
-        <v>0.3606456524499038</v>
+        <v>0.6376317395077962</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7600194964959712</v>
+        <v>1.850718185454468</v>
       </c>
       <c r="C15">
-        <v>0.1093770256531457</v>
+        <v>0.1204420972204758</v>
       </c>
       <c r="D15">
-        <v>0.05515065173540989</v>
+        <v>0.06065927930093551</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.24287870105951</v>
+        <v>1.165073445619967</v>
       </c>
       <c r="G15">
-        <v>1.106694029993974</v>
+        <v>1.05606093782167</v>
       </c>
       <c r="H15">
-        <v>1.061711054215223</v>
+        <v>0.6525814845632425</v>
       </c>
       <c r="I15">
-        <v>1.090668157664332</v>
+        <v>0.7533555447087892</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5193473190492739</v>
+        <v>1.593968441223012</v>
       </c>
       <c r="L15">
-        <v>0.3589904039667289</v>
+        <v>0.6306437350631029</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7275133898390322</v>
+        <v>1.729539408114846</v>
       </c>
       <c r="C16">
-        <v>0.1080522587800914</v>
+        <v>0.1165862810876988</v>
       </c>
       <c r="D16">
-        <v>0.05455640648478521</v>
+        <v>0.05941728745742836</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.23515312713117</v>
+        <v>1.116670342198461</v>
       </c>
       <c r="G16">
-        <v>1.100314935107548</v>
+        <v>1.014208954572368</v>
       </c>
       <c r="H16">
-        <v>1.061632526326349</v>
+        <v>0.6380689170109832</v>
       </c>
       <c r="I16">
-        <v>1.089958833550568</v>
+        <v>0.7351629107499775</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4902843765839009</v>
+        <v>1.490533884678001</v>
       </c>
       <c r="L16">
-        <v>0.3495590650563543</v>
+        <v>0.5908910823424094</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7076316111472067</v>
+        <v>1.655595918428929</v>
       </c>
       <c r="C17">
-        <v>0.1072343226867005</v>
+        <v>0.1142263542652415</v>
       </c>
       <c r="D17">
-        <v>0.05418947334470658</v>
+        <v>0.0586531674592834</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.230595579454132</v>
+        <v>1.087673798620969</v>
       </c>
       <c r="G17">
-        <v>1.096573670505833</v>
+        <v>0.9892408061839575</v>
       </c>
       <c r="H17">
-        <v>1.061707824189313</v>
+        <v>0.6295396773152078</v>
       </c>
       <c r="I17">
-        <v>1.089665919273912</v>
+        <v>0.7244818774938935</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.472472308652641</v>
+        <v>1.427373717721508</v>
       </c>
       <c r="L17">
-        <v>0.3438216238274094</v>
+        <v>0.5667512570441744</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6962182094396496</v>
+        <v>1.613200121867891</v>
       </c>
       <c r="C18">
-        <v>0.1067619449989721</v>
+        <v>0.112870656622114</v>
       </c>
       <c r="D18">
-        <v>0.05397755190961817</v>
+        <v>0.05821282931995597</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.228040978286771</v>
+        <v>1.071240055448271</v>
       </c>
       <c r="G18">
-        <v>1.094484961666666</v>
+        <v>0.9751272991544084</v>
       </c>
       <c r="H18">
-        <v>1.061796503031502</v>
+        <v>0.6247657134232156</v>
       </c>
       <c r="I18">
-        <v>1.089549678991531</v>
+        <v>0.718507347618889</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4622336693346654</v>
+        <v>1.391144425495895</v>
       </c>
       <c r="L18">
-        <v>0.3405393777143075</v>
+        <v>0.5529520686429805</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6923576323197267</v>
+        <v>1.598867739126945</v>
       </c>
       <c r="C19">
-        <v>0.1066016759576556</v>
+        <v>0.1124118956310696</v>
       </c>
       <c r="D19">
-        <v>0.05390564975547107</v>
+        <v>0.05806359216970947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.227187499291773</v>
+        <v>1.065716735011904</v>
       </c>
       <c r="G19">
-        <v>1.093788602262549</v>
+        <v>0.9703900967707</v>
       </c>
       <c r="H19">
-        <v>1.061834319850163</v>
+        <v>0.6231714650936482</v>
       </c>
       <c r="I19">
-        <v>1.089519290444301</v>
+        <v>0.716512812931434</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4587681496107621</v>
+        <v>1.37889393383054</v>
       </c>
       <c r="L19">
-        <v>0.3394311189208707</v>
+        <v>0.5482940692180733</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7097457793824447</v>
+        <v>1.663453164236273</v>
       </c>
       <c r="C20">
-        <v>0.1073215923763726</v>
+        <v>0.1144773920354893</v>
       </c>
       <c r="D20">
-        <v>0.05422862427151642</v>
+        <v>0.05873459529856007</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.231073825681776</v>
+        <v>1.090734983179473</v>
       </c>
       <c r="G20">
-        <v>1.09696539509406</v>
+        <v>0.9918728229056626</v>
       </c>
       <c r="H20">
-        <v>1.061695112889922</v>
+        <v>0.6304338638948934</v>
       </c>
       <c r="I20">
-        <v>1.089691693473199</v>
+        <v>0.7256012480123886</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4743677746092203</v>
+        <v>1.434086802432631</v>
       </c>
       <c r="L20">
-        <v>0.3444305442279756</v>
+        <v>0.5693120244594354</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7684302625029602</v>
+        <v>1.882135702514603</v>
       </c>
       <c r="C21">
-        <v>0.1097174351561776</v>
+        <v>0.1214395859627686</v>
       </c>
       <c r="D21">
-        <v>0.0553033338105493</v>
+        <v>0.06097928258451191</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.244929548462721</v>
+        <v>1.177795752470303</v>
       </c>
       <c r="G21">
-        <v>1.108394259497246</v>
+        <v>1.067095049327008</v>
       </c>
       <c r="H21">
-        <v>1.061769506284591</v>
+        <v>0.656448546436124</v>
       </c>
       <c r="I21">
-        <v>1.090895291680297</v>
+        <v>0.7582069493456274</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5268560029378193</v>
+        <v>1.620771667718373</v>
       </c>
       <c r="L21">
-        <v>0.3614403482435478</v>
+        <v>0.640988060485725</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8069774388156361</v>
+        <v>2.026494155559874</v>
       </c>
       <c r="C22">
-        <v>0.1112661124971694</v>
+        <v>0.1260123177910373</v>
       </c>
       <c r="D22">
-        <v>0.05599786524703632</v>
+        <v>0.06243951452088936</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.25458071594187</v>
+        <v>1.237131246044029</v>
       </c>
       <c r="G22">
-        <v>1.116427877790827</v>
+        <v>1.118728174646634</v>
       </c>
       <c r="H22">
-        <v>1.062222267467916</v>
+        <v>0.6747455155116171</v>
       </c>
       <c r="I22">
-        <v>1.092147790967594</v>
+        <v>0.7811810603806961</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5612147886716627</v>
+        <v>1.743860440807708</v>
       </c>
       <c r="L22">
-        <v>0.3727155749265876</v>
+        <v>0.6887116564331279</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7863865304301214</v>
+        <v>1.949303708739222</v>
       </c>
       <c r="C23">
-        <v>0.1104411241488421</v>
+        <v>0.1235693089200893</v>
       </c>
       <c r="D23">
-        <v>0.05562790390894889</v>
+        <v>0.06166074888501782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.249375156448281</v>
+        <v>1.205226585699535</v>
       </c>
       <c r="G23">
-        <v>1.112088478760896</v>
+        <v>1.090930903502226</v>
       </c>
       <c r="H23">
-        <v>1.061943634983137</v>
+        <v>0.6648554359591401</v>
       </c>
       <c r="I23">
-        <v>1.091436645759025</v>
+        <v>0.7687588946570969</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5428719603580987</v>
+        <v>1.678056686759362</v>
       </c>
       <c r="L23">
-        <v>0.3666832853453315</v>
+        <v>0.6631541907073739</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7087899112572131</v>
+        <v>1.659900546838372</v>
       </c>
       <c r="C24">
-        <v>0.1072821444013172</v>
+        <v>0.1143638946531311</v>
       </c>
       <c r="D24">
-        <v>0.05421092714679787</v>
+        <v>0.05869778500410661</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.230857406248475</v>
+        <v>1.089350287005487</v>
       </c>
       <c r="G24">
-        <v>1.09678810269196</v>
+        <v>0.990682140313595</v>
       </c>
       <c r="H24">
-        <v>1.061700718279283</v>
+        <v>0.630029199738388</v>
       </c>
       <c r="I24">
-        <v>1.089679878485164</v>
+        <v>0.7250946648411301</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4735108289594905</v>
+        <v>1.431051562547424</v>
       </c>
       <c r="L24">
-        <v>0.344155200591203</v>
+        <v>0.5681540563511192</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6259347594419751</v>
+        <v>1.352759744788415</v>
       </c>
       <c r="C25">
-        <v>0.1038011778634242</v>
+        <v>0.1044946024954641</v>
       </c>
       <c r="D25">
-        <v>0.05264923460156012</v>
+        <v>0.05546951636870645</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.213435420969873</v>
+        <v>0.9735719298260648</v>
       </c>
       <c r="G25">
-        <v>1.082698072909295</v>
+        <v>0.8918807052479139</v>
       </c>
       <c r="H25">
-        <v>1.063173153093686</v>
+        <v>0.5974448734573912</v>
       </c>
       <c r="I25">
-        <v>1.089781544329739</v>
+        <v>0.6843758732112732</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3989390192569431</v>
+        <v>1.168295270532667</v>
       </c>
       <c r="L25">
-        <v>0.3205345975156035</v>
+        <v>0.4688880736009935</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.129746062526749</v>
+        <v>3.501479253287641</v>
       </c>
       <c r="C2">
-        <v>0.09724228027268822</v>
+        <v>1.086671693072333</v>
       </c>
       <c r="D2">
-        <v>0.05306164290840343</v>
+        <v>0.06472997626227794</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8949801924837857</v>
+        <v>0.3329764240315214</v>
       </c>
       <c r="G2">
-        <v>0.8258675610154</v>
+        <v>0.2272370584001706</v>
       </c>
       <c r="H2">
-        <v>0.5771538389442696</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6591084299188736</v>
+        <v>0.007431774313641171</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1938653617623984</v>
       </c>
       <c r="K2">
-        <v>0.9769963461437499</v>
+        <v>0.1065412397132794</v>
       </c>
       <c r="L2">
-        <v>0.3979724716689788</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9800294676842043</v>
+        <v>3.049919450473112</v>
       </c>
       <c r="C3">
-        <v>0.09231990681298896</v>
+        <v>0.9520663805221545</v>
       </c>
       <c r="D3">
-        <v>0.05140932615923788</v>
+        <v>0.05755770373027502</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8452995799079659</v>
+        <v>0.3107434900871269</v>
       </c>
       <c r="G3">
-        <v>0.7847502252570706</v>
+        <v>0.2133336016618514</v>
       </c>
       <c r="H3">
-        <v>0.5654492264228139</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6445773768540377</v>
+        <v>0.004773865963798141</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1953376932115418</v>
       </c>
       <c r="K3">
-        <v>0.8482586696413534</v>
+        <v>0.1197551874453531</v>
       </c>
       <c r="L3">
-        <v>0.3510057121678898</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8886450195665816</v>
+        <v>2.772593637003467</v>
       </c>
       <c r="C4">
-        <v>0.08928907973883327</v>
+        <v>0.8699745684792219</v>
       </c>
       <c r="D4">
-        <v>0.05038441847113262</v>
+        <v>0.05319829229978268</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8163898554770697</v>
+        <v>0.2981133323479312</v>
       </c>
       <c r="G4">
-        <v>0.7611144030539236</v>
+        <v>0.2058030566236368</v>
       </c>
       <c r="H4">
-        <v>0.5591930862896675</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.636829078632573</v>
+        <v>0.003438744019058415</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1968674047283869</v>
       </c>
       <c r="K4">
-        <v>0.7695280406185248</v>
+        <v>0.1285431258451046</v>
       </c>
       <c r="L4">
-        <v>0.3226281975053809</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8515199200533914</v>
+        <v>2.659500684089096</v>
       </c>
       <c r="C5">
-        <v>0.08805122021519907</v>
+        <v>0.8378363579938082</v>
       </c>
       <c r="D5">
-        <v>0.0499641260989705</v>
+        <v>0.05155767216654539</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8049859631545573</v>
+        <v>0.2924210019421523</v>
       </c>
       <c r="G5">
-        <v>0.7518632458019425</v>
+        <v>0.2022085567712892</v>
       </c>
       <c r="H5">
-        <v>0.5568666811846299</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6339521391585308</v>
+        <v>0.003018045257395574</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1972351310131728</v>
       </c>
       <c r="K5">
-        <v>0.7375059147177296</v>
+        <v>0.1320381849161212</v>
       </c>
       <c r="L5">
-        <v>0.3111690247593231</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8453616551654477</v>
+        <v>2.640676270632866</v>
       </c>
       <c r="C6">
-        <v>0.08784548919030044</v>
+        <v>0.8339696353629051</v>
       </c>
       <c r="D6">
-        <v>0.0498941772281718</v>
+        <v>0.05143995616045771</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8031144560989105</v>
+        <v>0.2905336590788252</v>
       </c>
       <c r="G6">
-        <v>0.7503494023692951</v>
+        <v>0.2006994407366705</v>
       </c>
       <c r="H6">
-        <v>0.5564935444497365</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.633490958488693</v>
+        <v>0.003026642738626961</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1968119470332468</v>
       </c>
       <c r="K6">
-        <v>0.7321918612538241</v>
+        <v>0.132329116579454</v>
       </c>
       <c r="L6">
-        <v>0.3092722679359809</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8881439001503963</v>
+        <v>2.770952923001687</v>
       </c>
       <c r="C7">
-        <v>0.08927239757622374</v>
+        <v>0.8735477897807584</v>
       </c>
       <c r="D7">
-        <v>0.05037876095294891</v>
+        <v>0.05359835693125348</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8162345624881482</v>
+        <v>0.2954226912841023</v>
       </c>
       <c r="G7">
-        <v>0.7609881286861935</v>
+        <v>0.2032226960111529</v>
       </c>
       <c r="H7">
-        <v>0.5591608226088312</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6367891619835717</v>
+        <v>0.003620501239296026</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1955265333437026</v>
       </c>
       <c r="K7">
-        <v>0.7690959539399671</v>
+        <v>0.1277768153480867</v>
       </c>
       <c r="L7">
-        <v>0.3224732442623122</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.077997851702833</v>
+        <v>3.345616815344385</v>
       </c>
       <c r="C8">
-        <v>0.09554640083145927</v>
+        <v>1.045492879292794</v>
       </c>
       <c r="D8">
-        <v>0.05249406025677317</v>
+        <v>0.06281324538493038</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8775046095845767</v>
+        <v>0.3216285146167053</v>
       </c>
       <c r="G8">
-        <v>0.8113409910173459</v>
+        <v>0.2188744427611056</v>
       </c>
       <c r="H8">
-        <v>0.572918152490459</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6538454372588802</v>
+        <v>0.006667410412040553</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1924676906819087</v>
       </c>
       <c r="K8">
-        <v>0.9325310841125827</v>
+        <v>0.1099052084015826</v>
       </c>
       <c r="L8">
-        <v>0.3816760716568268</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.455658774901281</v>
+        <v>4.473725683520797</v>
       </c>
       <c r="C9">
-        <v>0.1078145143524267</v>
+        <v>1.380720837182366</v>
       </c>
       <c r="D9">
-        <v>0.05656157983099064</v>
+        <v>0.08051027784146925</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.011457910016873</v>
+        <v>0.3867322624477723</v>
       </c>
       <c r="G9">
-        <v>0.9240342612509096</v>
+        <v>0.2630430672014299</v>
       </c>
       <c r="H9">
-        <v>0.60780917935611</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6973108737896112</v>
+        <v>0.01502422154157301</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1942581496162887</v>
       </c>
       <c r="K9">
-        <v>1.256405603493448</v>
+        <v>0.08203542689168231</v>
       </c>
       <c r="L9">
-        <v>0.5019513513067579</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.737995884696801</v>
+        <v>5.305425554818612</v>
       </c>
       <c r="C10">
-        <v>0.1168558162581306</v>
+        <v>1.63368450314249</v>
       </c>
       <c r="D10">
-        <v>0.05950436753361288</v>
+        <v>0.09403764609886878</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.120013004884086</v>
+        <v>0.4401732793732762</v>
       </c>
       <c r="G10">
-        <v>1.01709240411634</v>
+        <v>0.3011360014453999</v>
       </c>
       <c r="H10">
-        <v>0.6390604205619042</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7364051029470104</v>
+        <v>0.02330584899701726</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1988598601032123</v>
       </c>
       <c r="K10">
-        <v>1.497754934218875</v>
+        <v>0.06533799456911993</v>
       </c>
       <c r="L10">
-        <v>0.5936575640241415</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.867885529468111</v>
+        <v>5.684777473364818</v>
       </c>
       <c r="C11">
-        <v>0.1209872578879114</v>
+        <v>1.756960180402928</v>
       </c>
       <c r="D11">
-        <v>0.06083423736696858</v>
+        <v>0.1010058127909588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.172016590001419</v>
+        <v>0.4620669154342352</v>
       </c>
       <c r="G11">
-        <v>1.06208108296785</v>
+        <v>0.3162132502008603</v>
       </c>
       <c r="H11">
-        <v>0.6546893327950016</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7559997479957445</v>
+        <v>0.02790388446814696</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1998293940904432</v>
       </c>
       <c r="K11">
-        <v>1.608615097293807</v>
+        <v>0.0576433134265244</v>
       </c>
       <c r="L11">
-        <v>0.6362942457054714</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.917315302350715</v>
+        <v>5.828774817227838</v>
       </c>
       <c r="C12">
-        <v>0.1225555096292865</v>
+        <v>1.800236466640968</v>
       </c>
       <c r="D12">
-        <v>0.0613366540701179</v>
+        <v>0.1032716041060269</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.192123792561901</v>
+        <v>0.4729135129058903</v>
       </c>
       <c r="G12">
-        <v>1.079537778148847</v>
+        <v>0.3243985395238553</v>
       </c>
       <c r="H12">
-        <v>0.6608282360764264</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7637032761895099</v>
+        <v>0.02958621903382319</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2014957697427633</v>
       </c>
       <c r="K12">
-        <v>1.6507780116753</v>
+        <v>0.05551623812580786</v>
       </c>
       <c r="L12">
-        <v>0.6525891179057197</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.906658311936695</v>
+        <v>5.797775566967744</v>
       </c>
       <c r="C13">
-        <v>0.1222175723834056</v>
+        <v>1.790172305538761</v>
       </c>
       <c r="D13">
-        <v>0.06122850031552929</v>
+        <v>0.1027047799377101</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.187774275351174</v>
+        <v>0.4710181468596986</v>
       </c>
       <c r="G13">
-        <v>1.075758817952234</v>
+        <v>0.3230591333701511</v>
       </c>
       <c r="H13">
-        <v>0.6594960095062135</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.762031187487537</v>
+        <v>0.02918750300918926</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2013577906325708</v>
       </c>
       <c r="K13">
-        <v>1.641688867526341</v>
+        <v>0.05608920923644156</v>
       </c>
       <c r="L13">
-        <v>0.6490727979439441</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.871947061146045</v>
+        <v>5.696629541837183</v>
       </c>
       <c r="C14">
-        <v>0.1211161967457244</v>
+        <v>1.760204542555982</v>
       </c>
       <c r="D14">
-        <v>0.06087559447892232</v>
+        <v>0.1011587381036492</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.173662286180175</v>
+        <v>0.4631460944334478</v>
       </c>
       <c r="G14">
-        <v>1.063508596845367</v>
+        <v>0.3170661673485426</v>
       </c>
       <c r="H14">
-        <v>0.6551898581809468</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7566277015365372</v>
+        <v>0.02802640745033091</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2000601696936997</v>
       </c>
       <c r="K14">
-        <v>1.61208003244414</v>
+        <v>0.05751699074778038</v>
       </c>
       <c r="L14">
-        <v>0.6376317395077962</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.850718185454468</v>
+        <v>5.634658993369044</v>
       </c>
       <c r="C15">
-        <v>0.1204420972204758</v>
+        <v>1.743320986263257</v>
       </c>
       <c r="D15">
-        <v>0.06065927930093551</v>
+        <v>0.1003673978141251</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.165073445619967</v>
+        <v>0.4574700347685763</v>
       </c>
       <c r="G15">
-        <v>1.05606093782167</v>
+        <v>0.3125752736795988</v>
       </c>
       <c r="H15">
-        <v>0.6525814845632425</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7533555447087892</v>
+        <v>0.02739513383212255</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1988373451571022</v>
       </c>
       <c r="K15">
-        <v>1.593968441223012</v>
+        <v>0.05817250644770056</v>
       </c>
       <c r="L15">
-        <v>0.6306437350631029</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.729539408114846</v>
+        <v>5.280272063333086</v>
       </c>
       <c r="C16">
-        <v>0.1165862810876988</v>
+        <v>1.637766807284379</v>
       </c>
       <c r="D16">
-        <v>0.05941728745742836</v>
+        <v>0.09487349540746237</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.116670342198461</v>
+        <v>0.4312357759279379</v>
       </c>
       <c r="G16">
-        <v>1.014208954572368</v>
+        <v>0.2929207322217025</v>
       </c>
       <c r="H16">
-        <v>0.6380689170109832</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7351629107499775</v>
+        <v>0.02353929825058731</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.195015487499461</v>
       </c>
       <c r="K16">
-        <v>1.490533884678001</v>
+        <v>0.06378990952129371</v>
       </c>
       <c r="L16">
-        <v>0.5908910823424094</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.655595918428929</v>
+        <v>5.063220492530206</v>
       </c>
       <c r="C17">
-        <v>0.1142263542652415</v>
+        <v>1.573317520524427</v>
       </c>
       <c r="D17">
-        <v>0.0586531674592834</v>
+        <v>0.09151905650001879</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.087673798620969</v>
+        <v>0.415667391152823</v>
       </c>
       <c r="G17">
-        <v>0.9892408061839575</v>
+        <v>0.2813904781815921</v>
       </c>
       <c r="H17">
-        <v>0.6295396773152078</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7244818774938935</v>
+        <v>0.02132921736400561</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1929562869702295</v>
       </c>
       <c r="K17">
-        <v>1.427373717721508</v>
+        <v>0.06752190875931596</v>
       </c>
       <c r="L17">
-        <v>0.5667512570441744</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.613200121867891</v>
+        <v>4.938607126620354</v>
       </c>
       <c r="C18">
-        <v>0.112870656622114</v>
+        <v>1.532688282695005</v>
       </c>
       <c r="D18">
-        <v>0.05821282931995597</v>
+        <v>0.08920474051935656</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.071240055448271</v>
+        <v>0.4091713406220663</v>
       </c>
       <c r="G18">
-        <v>0.9751272991544084</v>
+        <v>0.2771307014267848</v>
       </c>
       <c r="H18">
-        <v>0.6247657134232156</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.718507347618889</v>
+        <v>0.01991420511193631</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1930194330270183</v>
       </c>
       <c r="K18">
-        <v>1.391144425495895</v>
+        <v>0.07038905189682332</v>
       </c>
       <c r="L18">
-        <v>0.5529520686429805</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.598867739126945</v>
+        <v>4.896344509921448</v>
       </c>
       <c r="C19">
-        <v>0.1124118956310696</v>
+        <v>1.521774172257722</v>
       </c>
       <c r="D19">
-        <v>0.05806359216970947</v>
+        <v>0.08872312643980251</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.065716735011904</v>
+        <v>0.4052465614005669</v>
       </c>
       <c r="G19">
-        <v>0.9703900967707</v>
+        <v>0.2740296506857902</v>
       </c>
       <c r="H19">
-        <v>0.6231714650936482</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.716512812931434</v>
+        <v>0.01959319966833117</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1921721812343975</v>
       </c>
       <c r="K19">
-        <v>1.37889393383054</v>
+        <v>0.0708975988710705</v>
       </c>
       <c r="L19">
-        <v>0.5482940692180733</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.663453164236273</v>
+        <v>5.086322917293728</v>
       </c>
       <c r="C20">
-        <v>0.1144773920354893</v>
+        <v>1.579879362562394</v>
       </c>
       <c r="D20">
-        <v>0.05873459529856007</v>
+        <v>0.09184485527204345</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.090734983179473</v>
+        <v>0.4174839684785994</v>
       </c>
       <c r="G20">
-        <v>0.9918728229056626</v>
+        <v>0.2827702849239841</v>
       </c>
       <c r="H20">
-        <v>0.6304338638948934</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7256012480123886</v>
+        <v>0.02154308000247251</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1932549261076559</v>
       </c>
       <c r="K20">
-        <v>1.434086802432631</v>
+        <v>0.06716239291120552</v>
       </c>
       <c r="L20">
-        <v>0.5693120244594354</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.882135702514603</v>
+        <v>5.726197691797381</v>
       </c>
       <c r="C21">
-        <v>0.1214395859627686</v>
+        <v>1.773116210346984</v>
       </c>
       <c r="D21">
-        <v>0.06097928258451191</v>
+        <v>0.1020516274364667</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.177795752470303</v>
+        <v>0.462905656653426</v>
       </c>
       <c r="G21">
-        <v>1.067095049327008</v>
+        <v>0.3163707553162851</v>
       </c>
       <c r="H21">
-        <v>0.656448546436124</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7582069493456274</v>
+        <v>0.02855872524364766</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1991585405267529</v>
       </c>
       <c r="K21">
-        <v>1.620771667718373</v>
+        <v>0.05641066252427329</v>
       </c>
       <c r="L21">
-        <v>0.640988060485725</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.026494155559874</v>
+        <v>6.145924532053186</v>
       </c>
       <c r="C22">
-        <v>0.1260123177910373</v>
+        <v>1.895288027953768</v>
       </c>
       <c r="D22">
-        <v>0.06243951452088936</v>
+        <v>0.1082210409448265</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.237131246044029</v>
+        <v>0.4976690588034103</v>
       </c>
       <c r="G22">
-        <v>1.118728174646634</v>
+        <v>0.3432939729130453</v>
       </c>
       <c r="H22">
-        <v>0.6747455155116171</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7811810603806961</v>
+        <v>0.03343891601890547</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2056333231002299</v>
       </c>
       <c r="K22">
-        <v>1.743860440807708</v>
+        <v>0.05123935456206041</v>
       </c>
       <c r="L22">
-        <v>0.6887116564331279</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.949303708739222</v>
+        <v>5.921929835451635</v>
       </c>
       <c r="C23">
-        <v>0.1235693089200893</v>
+        <v>1.82501022491283</v>
       </c>
       <c r="D23">
-        <v>0.06166074888501782</v>
+        <v>0.1043934928987085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.205226585699535</v>
+        <v>0.4820063224987408</v>
       </c>
       <c r="G23">
-        <v>1.090930903502226</v>
+        <v>0.331698916705875</v>
       </c>
       <c r="H23">
-        <v>0.6648554359591401</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7687588946570969</v>
+        <v>0.03056564350313895</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2036242489348865</v>
       </c>
       <c r="K23">
-        <v>1.678056686759362</v>
+        <v>0.05473035225026734</v>
       </c>
       <c r="L23">
-        <v>0.6631541907073739</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.659900546838372</v>
+        <v>5.076124338048828</v>
       </c>
       <c r="C24">
-        <v>0.1143638946531311</v>
+        <v>1.569159356847706</v>
       </c>
       <c r="D24">
-        <v>0.05869778500410661</v>
+        <v>0.09087170080547224</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.089350287005487</v>
+        <v>0.4214880998563828</v>
       </c>
       <c r="G24">
-        <v>0.990682140313595</v>
+        <v>0.2867918564521972</v>
       </c>
       <c r="H24">
-        <v>0.630029199738388</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7250946648411301</v>
+        <v>0.02106922505199726</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1955528657341432</v>
       </c>
       <c r="K24">
-        <v>1.431051562547424</v>
+        <v>0.06864692591557997</v>
       </c>
       <c r="L24">
-        <v>0.5681540563511192</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.352759744788415</v>
+        <v>4.167977299066081</v>
       </c>
       <c r="C25">
-        <v>0.1044946024954641</v>
+        <v>1.296764404588203</v>
       </c>
       <c r="D25">
-        <v>0.05546951636870645</v>
+        <v>0.07646265947847297</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9735719298260648</v>
+        <v>0.3633047473984163</v>
       </c>
       <c r="G25">
-        <v>0.8918807052479139</v>
+        <v>0.2454465025946249</v>
       </c>
       <c r="H25">
-        <v>0.5974448734573912</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6843758732112732</v>
+        <v>0.01274870198055211</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.190740583124672</v>
       </c>
       <c r="K25">
-        <v>1.168295270532667</v>
+        <v>0.08753850207434777</v>
       </c>
       <c r="L25">
-        <v>0.4688880736009935</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_19/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.501479253287641</v>
+        <v>3.495506776588684</v>
       </c>
       <c r="C2">
-        <v>1.086671693072333</v>
+        <v>1.092472612841789</v>
       </c>
       <c r="D2">
-        <v>0.06472997626227794</v>
+        <v>0.06692722240723015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3329764240315214</v>
+        <v>0.3270678329408412</v>
       </c>
       <c r="G2">
-        <v>0.2272370584001706</v>
+        <v>0.2069680547854347</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007431774313641171</v>
+        <v>0.006769430504030893</v>
       </c>
       <c r="J2">
-        <v>0.1938653617623984</v>
+        <v>0.2370421444281945</v>
       </c>
       <c r="K2">
-        <v>0.1065412397132794</v>
+        <v>0.1071933602974502</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08639411393286522</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01240990552234456</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.049919450473112</v>
+        <v>3.047433375489277</v>
       </c>
       <c r="C3">
-        <v>0.9520663805221545</v>
+        <v>0.9504399584529892</v>
       </c>
       <c r="D3">
-        <v>0.05755770373027502</v>
+        <v>0.05876139041745176</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3107434900871269</v>
+        <v>0.3089348044212485</v>
       </c>
       <c r="G3">
-        <v>0.2133336016618514</v>
+        <v>0.1958684176592556</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004773865963798141</v>
+        <v>0.004578994063383135</v>
       </c>
       <c r="J3">
-        <v>0.1953376932115418</v>
+        <v>0.2384742771500612</v>
       </c>
       <c r="K3">
-        <v>0.1197551874453531</v>
+        <v>0.1199441727423398</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09300328371985955</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01574453133262121</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.772593637003467</v>
+        <v>2.771999502487176</v>
       </c>
       <c r="C4">
-        <v>0.8699745684792219</v>
+        <v>0.8639509885996404</v>
       </c>
       <c r="D4">
-        <v>0.05319829229978268</v>
+        <v>0.05380839653185632</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2981133323479312</v>
+        <v>0.2985387608180758</v>
       </c>
       <c r="G4">
-        <v>0.2058030566236368</v>
+        <v>0.1899562579009526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003438744019058415</v>
+        <v>0.003460238060816856</v>
       </c>
       <c r="J4">
-        <v>0.1968674047283869</v>
+        <v>0.2396090140352101</v>
       </c>
       <c r="K4">
-        <v>0.1285431258451046</v>
+        <v>0.1283125759096331</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09739592524335805</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01838441016106174</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.659500684089096</v>
+        <v>2.659624183155699</v>
       </c>
       <c r="C5">
-        <v>0.8378363579938082</v>
+        <v>0.8299655631412008</v>
       </c>
       <c r="D5">
-        <v>0.05155767216654539</v>
+        <v>0.05191917289559456</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2924210019421523</v>
+        <v>0.2937582404545083</v>
       </c>
       <c r="G5">
-        <v>0.2022085567712892</v>
+        <v>0.1870714504175837</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003018045257395574</v>
+        <v>0.003124580480206696</v>
       </c>
       <c r="J5">
-        <v>0.1972351310131728</v>
+        <v>0.2397496449918606</v>
       </c>
       <c r="K5">
-        <v>0.1320381849161212</v>
+        <v>0.1316285306605351</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09910871641794827</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01959416208534279</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.640676270632866</v>
+        <v>2.640917264064171</v>
       </c>
       <c r="C6">
-        <v>0.8339696353629051</v>
+        <v>0.8256747055667688</v>
       </c>
       <c r="D6">
-        <v>0.05143995616045771</v>
+        <v>0.05174702639840945</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2905336590788252</v>
+        <v>0.2921024936467376</v>
       </c>
       <c r="G6">
-        <v>0.2006994407366705</v>
+        <v>0.185771265928814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003026642738626961</v>
+        <v>0.003163848843217743</v>
       </c>
       <c r="J6">
-        <v>0.1968119470332468</v>
+        <v>0.239310388837545</v>
       </c>
       <c r="K6">
-        <v>0.132329116579454</v>
+        <v>0.1319169456397118</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09920381777911658</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01979136747381277</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.770952923001687</v>
+        <v>2.770304684419273</v>
       </c>
       <c r="C7">
-        <v>0.8735477897807584</v>
+        <v>0.866047533688203</v>
       </c>
       <c r="D7">
-        <v>0.05359835693125348</v>
+        <v>0.05440998278366038</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2954226912841023</v>
+        <v>0.2946836971160067</v>
       </c>
       <c r="G7">
-        <v>0.2032226960111529</v>
+        <v>0.1893357923892651</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.003620501239296026</v>
+        <v>0.003682128492949133</v>
       </c>
       <c r="J7">
-        <v>0.1955265333437026</v>
+        <v>0.2343775584411958</v>
       </c>
       <c r="K7">
-        <v>0.1277768153480867</v>
+        <v>0.1273431382931252</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09670774125190107</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01833213177746219</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.345616815344385</v>
+        <v>3.340673881529312</v>
       </c>
       <c r="C8">
-        <v>1.045492879292794</v>
+        <v>1.044483461343276</v>
       </c>
       <c r="D8">
-        <v>0.06281324538493038</v>
+        <v>0.06543857903050565</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3216285146167053</v>
+        <v>0.3128782241489674</v>
       </c>
       <c r="G8">
-        <v>0.2188744427611056</v>
+        <v>0.205625130394381</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006667410412040553</v>
+        <v>0.006212683261754393</v>
       </c>
       <c r="J8">
-        <v>0.1924676906819087</v>
+        <v>0.2230312216556172</v>
       </c>
       <c r="K8">
-        <v>0.1099052084015826</v>
+        <v>0.1097015700226809</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08751402597702373</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0131547021307834</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.473725683520797</v>
+        <v>4.458220538882642</v>
       </c>
       <c r="C9">
-        <v>1.380720837182366</v>
+        <v>1.398298093828771</v>
       </c>
       <c r="D9">
-        <v>0.08051027784146925</v>
+        <v>0.08599833232293008</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3867322624477723</v>
+        <v>0.3644640806978288</v>
       </c>
       <c r="G9">
-        <v>0.2630430672014299</v>
+        <v>0.2435045562042717</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01502422154157301</v>
+        <v>0.01286293557729223</v>
       </c>
       <c r="J9">
-        <v>0.1942581496162887</v>
+        <v>0.2190973677024317</v>
       </c>
       <c r="K9">
-        <v>0.08203542689168231</v>
+        <v>0.08191701972887078</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07361999505480288</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.008193838570048406</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.305425554818612</v>
+        <v>5.27964923393489</v>
       </c>
       <c r="C10">
-        <v>1.63368450314249</v>
+        <v>1.658419480911277</v>
       </c>
       <c r="D10">
-        <v>0.09403764609886878</v>
+        <v>0.1032165689555313</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4401732793732762</v>
+        <v>0.3982716320486617</v>
       </c>
       <c r="G10">
-        <v>0.3011360014453999</v>
+        <v>0.2867925243951532</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02330584899701726</v>
+        <v>0.01933348653692146</v>
       </c>
       <c r="J10">
-        <v>0.1988598601032123</v>
+        <v>0.1965841975457465</v>
       </c>
       <c r="K10">
-        <v>0.06533799456911993</v>
+        <v>0.06330689911009735</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06462782493781605</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.007227281160827381</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.684777473364818</v>
+        <v>5.652910337365313</v>
       </c>
       <c r="C11">
-        <v>1.756960180402928</v>
+        <v>1.772105181650886</v>
       </c>
       <c r="D11">
-        <v>0.1010058127909588</v>
+        <v>0.114642959600701</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4620669154342352</v>
+        <v>0.3973628780837686</v>
       </c>
       <c r="G11">
-        <v>0.3162132502008603</v>
+        <v>0.3232421653361968</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02790388446814696</v>
+        <v>0.02292137696123042</v>
       </c>
       <c r="J11">
-        <v>0.1998293940904432</v>
+        <v>0.1546741161792866</v>
       </c>
       <c r="K11">
-        <v>0.0576433134265244</v>
+        <v>0.05313291059715919</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06031216076073131</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.006214254854993939</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.828774817227838</v>
+        <v>5.794388407670056</v>
       </c>
       <c r="C12">
-        <v>1.800236466640968</v>
+        <v>1.810416505082344</v>
       </c>
       <c r="D12">
-        <v>0.1032716041060269</v>
+        <v>0.1190084335749333</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4729135129058903</v>
+        <v>0.397472242327261</v>
       </c>
       <c r="G12">
-        <v>0.3243985395238553</v>
+        <v>0.341981082914586</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02958621903382319</v>
+        <v>0.02413195149596881</v>
       </c>
       <c r="J12">
-        <v>0.2014957697427633</v>
+        <v>0.1383030819823219</v>
       </c>
       <c r="K12">
-        <v>0.05551623812580786</v>
+        <v>0.04970600396872626</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05891704011566889</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.005995735168685457</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.797775566967744</v>
+        <v>5.76393825776438</v>
       </c>
       <c r="C13">
-        <v>1.790172305538761</v>
+        <v>1.801553096261614</v>
       </c>
       <c r="D13">
-        <v>0.1027047799377101</v>
+        <v>0.1179729386483075</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4710181468596986</v>
+        <v>0.3978944425872513</v>
       </c>
       <c r="G13">
-        <v>0.3230591333701511</v>
+        <v>0.338207484510832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02918750300918926</v>
+        <v>0.023826340176762</v>
       </c>
       <c r="J13">
-        <v>0.2013577906325708</v>
+        <v>0.1419741965876895</v>
       </c>
       <c r="K13">
-        <v>0.05608920923644156</v>
+        <v>0.05051141312590346</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05923088368155738</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.006078425359904216</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.696629541837183</v>
+        <v>5.664558179370374</v>
       </c>
       <c r="C14">
-        <v>1.760204542555982</v>
+        <v>1.774998254601087</v>
       </c>
       <c r="D14">
-        <v>0.1011587381036492</v>
+        <v>0.1149614362184224</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4631460944334478</v>
+        <v>0.397564192277315</v>
       </c>
       <c r="G14">
-        <v>0.3170661673485426</v>
+        <v>0.3248906086450347</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02802640745033091</v>
+        <v>0.02300148847894601</v>
       </c>
       <c r="J14">
-        <v>0.2000601696936997</v>
+        <v>0.1533985305289676</v>
       </c>
       <c r="K14">
-        <v>0.05751699074778038</v>
+        <v>0.05288112228331698</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06020396521284055</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.006211577108046207</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.634658993369044</v>
+        <v>5.603647541434839</v>
       </c>
       <c r="C15">
-        <v>1.743320986263257</v>
+        <v>1.75988136992305</v>
       </c>
       <c r="D15">
-        <v>0.1003673978141251</v>
+        <v>0.1133198582321882</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4574700347685763</v>
+        <v>0.3964098918816816</v>
       </c>
       <c r="G15">
-        <v>0.3125752736795988</v>
+        <v>0.316360209905298</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02739513383212255</v>
+        <v>0.02259175249147205</v>
       </c>
       <c r="J15">
-        <v>0.1988373451571022</v>
+        <v>0.1600036926902391</v>
       </c>
       <c r="K15">
-        <v>0.05817250644770056</v>
+        <v>0.05418807035500262</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06076958410251132</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.006221329920341745</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.280272063333086</v>
+        <v>5.254902653977013</v>
       </c>
       <c r="C16">
-        <v>1.637766807284379</v>
+        <v>1.662011746661165</v>
       </c>
       <c r="D16">
-        <v>0.09487349540746237</v>
+        <v>0.1037483733525733</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4312357759279379</v>
+        <v>0.3916061746695405</v>
       </c>
       <c r="G16">
-        <v>0.2929207322217025</v>
+        <v>0.278348504759677</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02353929825058731</v>
+        <v>0.01979099330019896</v>
       </c>
       <c r="J16">
-        <v>0.195015487499461</v>
+        <v>0.1960460416639549</v>
       </c>
       <c r="K16">
-        <v>0.06378990952129371</v>
+        <v>0.06254808514145083</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06442627918401156</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.006688287956506223</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.063220492530206</v>
+        <v>5.040964855384232</v>
       </c>
       <c r="C17">
-        <v>1.573317520524427</v>
+        <v>1.599571655538114</v>
       </c>
       <c r="D17">
-        <v>0.09151905650001879</v>
+        <v>0.09852648882612414</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.415667391152823</v>
+        <v>0.3860391884594705</v>
       </c>
       <c r="G17">
-        <v>0.2813904781815921</v>
+        <v>0.2598106078456368</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02132921736400561</v>
+        <v>0.01815864219038854</v>
       </c>
       <c r="J17">
-        <v>0.1929562869702295</v>
+        <v>0.2131222575440219</v>
       </c>
       <c r="K17">
-        <v>0.06752190875931596</v>
+        <v>0.06756981181826305</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06674359807785457</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.006953028445829901</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.938607126620354</v>
+        <v>4.918010712600392</v>
       </c>
       <c r="C18">
-        <v>1.532688282695005</v>
+        <v>1.55941813351933</v>
       </c>
       <c r="D18">
-        <v>0.08920474051935656</v>
+        <v>0.09537769817439568</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4091713406220663</v>
+        <v>0.3838927232484224</v>
       </c>
       <c r="G18">
-        <v>0.2771307014267848</v>
+        <v>0.252649141645108</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01991420511193631</v>
+        <v>0.01699556609049679</v>
       </c>
       <c r="J18">
-        <v>0.1930194330270183</v>
+        <v>0.2215502052286027</v>
       </c>
       <c r="K18">
-        <v>0.07038905189682332</v>
+        <v>0.07085499425454689</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06826125159628793</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.007275849486124031</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.896344509921448</v>
+        <v>4.876297356406667</v>
       </c>
       <c r="C19">
-        <v>1.521774172257722</v>
+        <v>1.548302343911871</v>
       </c>
       <c r="D19">
-        <v>0.08872312643980251</v>
+        <v>0.09463035271631526</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4052465614005669</v>
+        <v>0.381466312870252</v>
       </c>
       <c r="G19">
-        <v>0.2740296506857902</v>
+        <v>0.2490124771932685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01959319966833117</v>
+        <v>0.01679883344969646</v>
       </c>
       <c r="J19">
-        <v>0.1921721812343975</v>
+        <v>0.2231964785600979</v>
       </c>
       <c r="K19">
-        <v>0.0708975988710705</v>
+        <v>0.07160126817074186</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06863635621165498</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.007250343940058634</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.086322917293728</v>
+        <v>5.063747772024556</v>
       </c>
       <c r="C20">
-        <v>1.579879362562394</v>
+        <v>1.606039744853604</v>
       </c>
       <c r="D20">
-        <v>0.09184485527204345</v>
+        <v>0.09903021523633981</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4174839684785994</v>
+        <v>0.3868858330780469</v>
       </c>
       <c r="G20">
-        <v>0.2827702849239841</v>
+        <v>0.261765864785815</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02154308000247251</v>
+        <v>0.01830900380373723</v>
       </c>
       <c r="J20">
-        <v>0.1932549261076559</v>
+        <v>0.2116178142398013</v>
       </c>
       <c r="K20">
-        <v>0.06716239291120552</v>
+        <v>0.06707606734244731</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06650900500893409</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.00693911378006451</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.726197691797381</v>
+        <v>5.693342499858204</v>
       </c>
       <c r="C21">
-        <v>1.773116210346984</v>
+        <v>1.782273401975146</v>
       </c>
       <c r="D21">
-        <v>0.1020516274364667</v>
+        <v>0.1172547141914606</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.462905656653426</v>
+        <v>0.3906750841847568</v>
       </c>
       <c r="G21">
-        <v>0.3163707553162851</v>
+        <v>0.3331921713963908</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02855872524364766</v>
+        <v>0.02345145287289618</v>
       </c>
       <c r="J21">
-        <v>0.1991585405267529</v>
+        <v>0.1399106181216325</v>
       </c>
       <c r="K21">
-        <v>0.05641066252427329</v>
+        <v>0.05118389259829925</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0596352757718146</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.005666786776316712</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.145924532053186</v>
+        <v>6.105629659640442</v>
       </c>
       <c r="C22">
-        <v>1.895288027953768</v>
+        <v>1.891583861780532</v>
       </c>
       <c r="D22">
-        <v>0.1082210409448265</v>
+        <v>0.1293528760655391</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4976690588034103</v>
+        <v>0.3953157537342094</v>
       </c>
       <c r="G22">
-        <v>0.3432939729130453</v>
+        <v>0.3895828622149082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03343891601890547</v>
+        <v>0.02686265913239883</v>
       </c>
       <c r="J22">
-        <v>0.2056333231002299</v>
+        <v>0.1033968866295751</v>
       </c>
       <c r="K22">
-        <v>0.05123935456206041</v>
+        <v>0.04235528701738378</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05612038815378961</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.005523082419196967</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.921929835451635</v>
+        <v>5.885848701173416</v>
       </c>
       <c r="C23">
-        <v>1.82501022491283</v>
+        <v>1.831787423102924</v>
       </c>
       <c r="D23">
-        <v>0.1043934928987085</v>
+        <v>0.1216089750206919</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4820063224987408</v>
+        <v>0.3987861476030403</v>
       </c>
       <c r="G23">
-        <v>0.331698916705875</v>
+        <v>0.35679929931635</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03056564350313895</v>
+        <v>0.02475052871481864</v>
       </c>
       <c r="J23">
-        <v>0.2036242489348865</v>
+        <v>0.1282512984562629</v>
       </c>
       <c r="K23">
-        <v>0.05473035225026734</v>
+        <v>0.04779736607416041</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05812444707404951</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.006003992589517892</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.076124338048828</v>
+        <v>5.053672147271413</v>
       </c>
       <c r="C24">
-        <v>1.569159356847706</v>
+        <v>1.595931097309972</v>
       </c>
       <c r="D24">
-        <v>0.09087170080547224</v>
+        <v>0.09802411479607542</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4214880998563828</v>
+        <v>0.3907208582143014</v>
       </c>
       <c r="G24">
-        <v>0.2867918564521972</v>
+        <v>0.264944831436182</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02106922505199726</v>
+        <v>0.01775202760584271</v>
       </c>
       <c r="J24">
-        <v>0.1955528657341432</v>
+        <v>0.2143442649476626</v>
       </c>
       <c r="K24">
-        <v>0.06864692591557997</v>
+        <v>0.06825509238092575</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06697387736127114</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.007323380242505451</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.167977299066081</v>
+        <v>4.155767409638145</v>
       </c>
       <c r="C25">
-        <v>1.296764404588203</v>
+        <v>1.310302683969553</v>
       </c>
       <c r="D25">
-        <v>0.07646265947847297</v>
+        <v>0.08075144423015246</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3633047473984163</v>
+        <v>0.3475150345373308</v>
       </c>
       <c r="G25">
-        <v>0.2454465025946249</v>
+        <v>0.2258038115934724</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01274870198055211</v>
+        <v>0.01123550437748566</v>
       </c>
       <c r="J25">
-        <v>0.190740583124672</v>
+        <v>0.2231569072908712</v>
       </c>
       <c r="K25">
-        <v>0.08753850207434777</v>
+        <v>0.08817978768169255</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07674000367287448</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.008773676039517841</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
